--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAADEBA5-79FE-4302-8BCD-405CA5E95F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4676F703-8CC0-44EC-B101-A327A4DA36E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$58</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="101">
   <si>
     <t>title</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>magyarzeldak.hu</t>
+  </si>
+  <si>
+    <t>videókat szét kell vágni, 50 mega felett van</t>
+  </si>
+  <si>
+    <t>Celeste Classic GBA</t>
+  </si>
+  <si>
+    <t>costlyclick</t>
   </si>
 </sst>
 </file>
@@ -705,13 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I55:I60"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,9 +1397,27 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>71</v>
@@ -1615,7 +1642,7 @@
         <v>83</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>76</v>
@@ -1675,6 +1702,9 @@
       <c r="H54" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="I54" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1755,8 +1785,34 @@
         <v>71</v>
       </c>
     </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition ref="A2:A48"/>
   </sortState>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4676F703-8CC0-44EC-B101-A327A4DA36E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03360E22-5CEA-46E6-BA3A-AEF94290C83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$58</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="107">
   <si>
     <t>title</t>
   </si>
@@ -211,9 +222,6 @@
     <t>latest change</t>
   </si>
   <si>
-    <t>releasenotes added, and also a screenshot iwth fil download url.</t>
-  </si>
-  <si>
     <t>Not yet.</t>
   </si>
   <si>
@@ -235,9 +243,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>added releasenotes</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -250,15 +255,9 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>added release notes</t>
-  </si>
-  <si>
     <t>need to have one.</t>
   </si>
   <si>
-    <t>added</t>
-  </si>
-  <si>
     <t>Retrobattle</t>
   </si>
   <si>
@@ -286,9 +285,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>extrac to subdirectory</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -326,6 +322,39 @@
   </si>
   <si>
     <t>costlyclick</t>
+  </si>
+  <si>
+    <t>gbatemp links are ok</t>
+  </si>
+  <si>
+    <t>új fajlok, shareware kell minimum, de tegyük mellé a fullt, ha van elérhető</t>
+  </si>
+  <si>
+    <t>eltünt a netről, törlés? Megnézni otthon mentésben</t>
+  </si>
+  <si>
+    <t>releasenotes</t>
+  </si>
+  <si>
+    <t>new entry added</t>
+  </si>
+  <si>
+    <t>extract target modified to a subdirectory</t>
+  </si>
+  <si>
+    <t>DLQRcode and releasenotes</t>
+  </si>
+  <si>
+    <t>hax0kartik</t>
+  </si>
+  <si>
+    <t>drive backup</t>
+  </si>
+  <si>
+    <t>gamedata.zip</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,6 +460,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,13 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:B40"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +768,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,123 +788,141 @@
         <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -884,27 +934,36 @@
         <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -912,10 +971,10 @@
         <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -923,10 +982,10 @@
         <v>54</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -934,18 +993,18 @@
         <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -953,25 +1012,25 @@
         <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -979,33 +1038,36 @@
         <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1013,25 +1075,28 @@
         <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1039,36 +1104,39 @@
         <v>58</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1076,10 +1144,10 @@
         <v>49</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1087,25 +1155,28 @@
         <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1113,77 +1184,83 @@
         <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -1191,85 +1268,94 @@
         <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,44 +1363,47 @@
         <v>53</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1322,10 +1411,10 @@
         <v>52</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -1333,150 +1422,174 @@
         <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="H38" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
@@ -1484,33 +1597,36 @@
         <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,10 +1634,10 @@
         <v>54</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
@@ -1529,286 +1645,316 @@
         <v>58</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J49" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J50" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="C52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="J52" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="C55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="C56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>80</v>
+      <c r="J58" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB2BDE6-8959-4C4F-BBF1-44EC71492BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095C67A-44A5-4A9B-91C1-F164EE06E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="132">
   <si>
     <t>title</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Super Mario War 3ds</t>
   </si>
   <si>
-    <t>Doom 3DS GBA</t>
-  </si>
-  <si>
     <t>uae3DS - supplementary files</t>
   </si>
   <si>
@@ -108,15 +105,9 @@
     <t>OpenHCL</t>
   </si>
   <si>
-    <t>Five Night at Freddy's</t>
-  </si>
-  <si>
     <t>wolf 4 sdl 3ds</t>
   </si>
   <si>
-    <t>Clock</t>
-  </si>
-  <si>
     <t>Portal3DS</t>
   </si>
   <si>
@@ -393,18 +384,60 @@
     <t>Super Mario 64 3DS 2020-09-17 [E]</t>
   </si>
   <si>
+    <t>Yes + all demo + all full + ohno 2player amiga</t>
+  </si>
+  <si>
     <t>+repo demo files sources added
-+every lvele added except original 2 playrs</t>
-  </si>
-  <si>
-    <t>Yes + all demo + all full</t>
++every lvele added except original 2 playrs (maybe ohno 2 players needs change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave it as now, </t>
+  </si>
+  <si>
+    <t>quake2ctr</t>
+  </si>
+  <si>
+    <t>Felipe Izzo</t>
+  </si>
+  <si>
+    <t>Xash3ds</t>
+  </si>
+  <si>
+    <t>ctrQuake</t>
+  </si>
+  <si>
+    <t>no datafile for full  in universal</t>
+  </si>
+  <si>
+    <t>no datafile for full in universal</t>
+  </si>
+  <si>
+    <t>Clock [E]</t>
+  </si>
+  <si>
+    <t>Doom 3DS GBA [E]</t>
+  </si>
+  <si>
+    <t>Five Night at Freddy's 1-4</t>
+  </si>
+  <si>
+    <t>added note to use hshop instead, download removed</t>
+  </si>
+  <si>
+    <t>Yes (1,2)</t>
+  </si>
+  <si>
+    <t>yes, 1</t>
+  </si>
+  <si>
+    <t>BasHeemskerkDEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +465,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="7">
@@ -502,9 +542,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -526,6 +563,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -813,13 +851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,112 +878,112 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>42</v>
+      <c r="A2" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -953,70 +991,70 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="A6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1025,88 +1063,113 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="A10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
+      <c r="B11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>66</v>
+      <c r="A13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1114,28 +1177,28 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1143,28 +1206,28 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1172,57 +1235,57 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1230,28 +1293,28 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1259,72 +1322,75 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1332,28 +1398,28 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1361,86 +1427,86 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1448,28 +1514,28 @@
         <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1477,162 +1543,162 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>66</v>
+      <c r="C30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1640,31 +1706,31 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1672,644 +1738,677 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>106</v>
+        <v>65</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>63</v>
+      <c r="A49" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="B55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095C67A-44A5-4A9B-91C1-F164EE06E2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A65ECEF-E6B3-470B-9DF2-56AFA52A77F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="133">
   <si>
     <t>title</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>maybe remove, low quality</t>
-  </si>
-  <si>
-    <t>check link</t>
   </si>
   <si>
     <t>Updated, new, complete source added</t>
@@ -431,6 +428,12 @@
   </si>
   <si>
     <t>BasHeemskerkDEV</t>
+  </si>
+  <si>
+    <t>Yes + 3 data files</t>
+  </si>
+  <si>
+    <t>all versions + remove option</t>
   </si>
 </sst>
 </file>
@@ -854,10 +857,10 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,28 +881,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -907,25 +910,25 @@
         <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -933,28 +936,28 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -962,28 +965,28 @@
         <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -991,46 +994,46 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1040,10 +1043,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1051,10 +1054,10 @@
         <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1063,44 +1066,44 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1110,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>48</v>
@@ -1120,38 +1123,38 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1159,7 +1162,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>46</v>
@@ -1169,7 +1172,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1177,28 +1180,28 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1206,28 +1209,28 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1235,28 +1238,28 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1264,28 +1267,28 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1293,28 +1296,28 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1322,28 +1325,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1351,31 +1354,31 @@
         <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" s="9"/>
     </row>
@@ -1387,10 +1390,10 @@
         <v>45</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1398,28 +1401,28 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1427,28 +1430,28 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1456,28 +1459,28 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1485,28 +1488,28 @@
         <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1514,28 +1517,28 @@
         <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1543,28 +1546,28 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1572,28 +1575,28 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1609,10 +1612,10 @@
         <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1620,7 +1623,7 @@
         <v>32</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1628,28 +1631,28 @@
         <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1657,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>48</v>
@@ -1667,7 +1670,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -1677,28 +1680,28 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1706,31 +1709,31 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1738,28 +1741,28 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1767,28 +1770,28 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1796,28 +1799,28 @@
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,7 +1828,7 @@
         <v>26</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1833,31 +1836,31 @@
         <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1865,28 +1868,28 @@
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1894,28 +1897,28 @@
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="H42" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1923,7 +1926,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1931,25 +1934,25 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1959,31 +1962,31 @@
         <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1991,39 +1994,57 @@
         <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>49</v>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2031,384 +2052,384 @@
         <v>34</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>72</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="H55" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A65ECEF-E6B3-470B-9DF2-56AFA52A77F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9AB03-8F96-4D1B-A0E5-11C01EF55143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="183">
   <si>
     <t>title</t>
   </si>
@@ -295,12 +295,6 @@
   </si>
   <si>
     <t>costlyclick</t>
-  </si>
-  <si>
-    <t>gbatemp links are ok</t>
-  </si>
-  <si>
-    <t>új fajlok, shareware kell minimum, de tegyük mellé a fullt, ha van elérhető</t>
   </si>
   <si>
     <t>eltünt a netről, törlés? Megnézni otthon mentésben</t>
@@ -388,9 +382,6 @@
 +every lvele added except original 2 playrs (maybe ohno 2 players needs change</t>
   </si>
   <si>
-    <t xml:space="preserve">leave it as now, </t>
-  </si>
-  <si>
     <t>quake2ctr</t>
   </si>
   <si>
@@ -434,13 +425,173 @@
   </si>
   <si>
     <t>all versions + remove option</t>
+  </si>
+  <si>
+    <t>derrekr</t>
+  </si>
+  <si>
+    <t>no more freware added yet, needs qr</t>
+  </si>
+  <si>
+    <t>leave it as now, needs more research https://github.com/Rinnegatamante/lpp-3ds</t>
+  </si>
+  <si>
+    <t>RGM</t>
+  </si>
+  <si>
+    <t>easyrpgdlre</t>
+  </si>
+  <si>
+    <t>not working crashing</t>
+  </si>
+  <si>
+    <t>unversaldb</t>
+  </si>
+  <si>
+    <t>https://www.gamebrew.org/wiki/Lua_Player_Plus_3DS</t>
+  </si>
+  <si>
+    <t>easyrpgplayer</t>
+  </si>
+  <si>
+    <t>https://easyrpg.org/player/downloads/#release-other</t>
+  </si>
+  <si>
+    <t>https://github.com/Rinnegatamante/ctrHexenII</t>
+  </si>
+  <si>
+    <t>ctrHexenII</t>
+  </si>
+  <si>
+    <t>ctrwolfen</t>
+  </si>
+  <si>
+    <t>https://github.com/Rinnegatamante/ctrWolfen</t>
+  </si>
+  <si>
+    <t>RossMeilkham</t>
+  </si>
+  <si>
+    <t>old shareware files kept, full version not found</t>
+  </si>
+  <si>
+    <t>needs to have full version files, because shareware not working</t>
+  </si>
+  <si>
+    <t>EnergeticBark</t>
+  </si>
+  <si>
+    <t>possibly extra data not needed because the internal open graphics and sounds downloader</t>
+  </si>
+  <si>
+    <t>new version linked</t>
+  </si>
+  <si>
+    <t>Xprogger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prboom </t>
+  </si>
+  <si>
+    <t>more doom levels.</t>
+  </si>
+  <si>
+    <t>https://github.com/elhobbs/prboom3ds/releases</t>
+  </si>
+  <si>
+    <t>elhobbs</t>
+  </si>
+  <si>
+    <t>play file needed</t>
+  </si>
+  <si>
+    <t>recompile?</t>
+  </si>
+  <si>
+    <t>to be add</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>DosBox</t>
+  </si>
+  <si>
+    <t>prboom+</t>
+  </si>
+  <si>
+    <t>reported to unidb</t>
+  </si>
+  <si>
+    <t>https://gbatemp.net/threads/release-prboom-3ds-port-gpu-accelerated.636076/</t>
+  </si>
+  <si>
+    <t>SonicCD11</t>
+  </si>
+  <si>
+    <t>https://github.com/Voxel9/Sonic-CD-11-3DS-Redux/releases</t>
+  </si>
+  <si>
+    <t>Add data file:</t>
+  </si>
+  <si>
+    <t>Recompile</t>
+  </si>
+  <si>
+    <t>Reported to UniDB</t>
+  </si>
+  <si>
+    <t>3d pinba space cadet</t>
+  </si>
+  <si>
+    <t>no file in unidb</t>
+  </si>
+  <si>
+    <t>raptor</t>
+  </si>
+  <si>
+    <t>Battery Monitor 3D</t>
+  </si>
+  <si>
+    <t>KoffeeJava</t>
+  </si>
+  <si>
+    <t>TheEpicFace007</t>
+  </si>
+  <si>
+    <t>CarsonKompon</t>
+  </si>
+  <si>
+    <t>ChatGPT3DS</t>
+  </si>
+  <si>
+    <t>movievertigo</t>
+  </si>
+  <si>
+    <t>FastMandelbrotZoom</t>
+  </si>
+  <si>
+    <t>Bubble Universe DS</t>
+  </si>
+  <si>
+    <t>Bubble Universe 3DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+For-Anyone-Who-Walks-Revamp</t>
+  </si>
+  <si>
+    <t>t0xid</t>
+  </si>
+  <si>
+    <t>3DiceRoll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +615,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -477,7 +637,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +674,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -528,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,9 +709,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -560,13 +729,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -854,29 +1035,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47:B47"/>
+      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="35.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="35.1796875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,11 +1083,11 @@
         <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -918,7 +1099,7 @@
       <c r="D2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -927,11 +1108,11 @@
       <c r="G2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -944,7 +1125,7 @@
       <c r="D3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -960,7 +1141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -973,7 +1154,7 @@
       <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -989,12 +1170,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>61</v>
@@ -1002,7 +1183,7 @@
       <c r="D5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1015,52 +1196,94 @@
         <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1071,11 +1294,11 @@
       <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>58</v>
@@ -1087,53 +1310,53 @@
         <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>61</v>
@@ -1141,46 +1364,46 @@
       <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>61</v>
@@ -1188,11 +1411,11 @@
       <c r="D14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>62</v>
@@ -1201,10 +1424,10 @@
         <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1440,7 @@
       <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1233,7 +1456,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1469,7 @@
       <c r="D16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1262,12 +1485,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>61</v>
@@ -1275,11 +1498,11 @@
       <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>62</v>
@@ -1291,7 +1514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1304,11 +1527,11 @@
       <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>62</v>
@@ -1320,7 +1543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1333,11 +1556,11 @@
       <c r="D19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>62</v>
@@ -1349,20 +1572,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1371,32 +1594,50 @@
       <c r="G20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>116</v>
+      <c r="I20" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1650,7 @@
       <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1425,7 +1666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1438,11 +1679,11 @@
       <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>62</v>
@@ -1454,7 +1695,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -1467,11 +1708,11 @@
       <c r="D24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>62</v>
@@ -1483,7 +1724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1496,7 +1737,7 @@
       <c r="D25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1512,7 +1753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1525,7 +1766,7 @@
       <c r="D26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1541,7 +1782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1795,7 @@
       <c r="D27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -1570,7 +1811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +1824,7 @@
       <c r="D28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -1599,34 +1840,79 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="B29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="H29" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H31" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1639,7 +1925,7 @@
       <c r="D32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1655,27 +1941,27 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1974,7 @@
       <c r="D34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1704,12 +1990,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>61</v>
@@ -1717,11 +2003,11 @@
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>62</v>
@@ -1730,18 +2016,18 @@
         <v>62</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>61</v>
@@ -1749,11 +2035,11 @@
       <c r="D36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>62</v>
@@ -1765,12 +2051,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>61</v>
@@ -1778,13 +2064,13 @@
       <c r="D37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>65</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -1794,12 +2080,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>61</v>
@@ -1807,11 +2093,11 @@
       <c r="D38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>62</v>
@@ -1823,15 +2109,36 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="B39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I39" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -1844,11 +2151,11 @@
       <c r="D40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>62</v>
@@ -1856,19 +2163,16 @@
       <c r="H40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="J40" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>61</v>
@@ -1876,11 +2180,11 @@
       <c r="D41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>62</v>
@@ -1892,8 +2196,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1905,60 +2209,60 @@
       <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="B43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1970,13 +2274,13 @@
       <c r="D45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -1985,11 +2289,11 @@
       <c r="J45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K45" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2002,11 +2306,11 @@
       <c r="D46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>78</v>
@@ -2018,12 +2322,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>61</v>
@@ -2031,11 +2335,11 @@
       <c r="D47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>62</v>
@@ -2044,10 +2348,10 @@
         <v>62</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>
@@ -2060,7 +2364,7 @@
       <c r="D48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -2073,11 +2377,11 @@
         <v>62</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2089,24 +2393,24 @@
       <c r="D49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2118,24 +2422,24 @@
       <c r="D50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2147,24 +2451,24 @@
       <c r="D51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2176,23 +2480,23 @@
       <c r="D52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>75</v>
       </c>
@@ -2205,11 +2509,11 @@
       <c r="D53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>78</v>
@@ -2221,7 +2525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>76</v>
       </c>
@@ -2234,11 +2538,11 @@
       <c r="D54" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>62</v>
@@ -2253,8 +2557,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2266,24 +2570,24 @@
       <c r="D55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
@@ -2296,11 +2600,11 @@
       <c r="D56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>78</v>
@@ -2312,7 +2616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
@@ -2325,11 +2629,11 @@
       <c r="D57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>78</v>
@@ -2341,7 +2645,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>85</v>
       </c>
@@ -2354,28 +2658,28 @@
       <c r="D58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>61</v>
@@ -2383,53 +2687,440 @@
       <c r="D59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>122</v>
+      <c r="F79" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2437,7 +3128,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition ref="A2:A48"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="K21" r:id="rId1" xr:uid="{A3E5B044-85D1-468A-A613-8725F60707A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9AB03-8F96-4D1B-A0E5-11C01EF55143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BD3F40-B0E8-427B-A4E6-216E29931AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="192">
   <si>
     <t>title</t>
   </si>
@@ -585,6 +585,33 @@
   </si>
   <si>
     <t>3DiceRoll</t>
+  </si>
+  <si>
+    <t>JFBlood</t>
+  </si>
+  <si>
+    <t>Fallout 1 CE</t>
+  </si>
+  <si>
+    <t>Fallout 2 CE</t>
+  </si>
+  <si>
+    <t>https://github.com/MrHuu/dethrace-3ds</t>
+  </si>
+  <si>
+    <t>3 freeware 1 full files</t>
+  </si>
+  <si>
+    <t>Dethrace</t>
+  </si>
+  <si>
+    <t>EasyRPGPlayer</t>
+  </si>
+  <si>
+    <t>EasyRPG</t>
+  </si>
+  <si>
+    <t>needs morexperiment, top free games to download, some release notes abot using other games</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1065,10 @@
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2833,7 +2860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>178</v>
       </c>
@@ -2859,7 +2886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>177</v>
       </c>
@@ -2885,7 +2912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>182</v>
       </c>
@@ -2911,7 +2938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>180</v>
       </c>
@@ -2937,18 +2964,134 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -2962,7 +3105,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>117</v>
       </c>
@@ -2976,7 +3119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A79" s="12" t="s">
         <v>118</v>
       </c>
@@ -2990,7 +3133,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>134</v>
       </c>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA6B5D-678C-4D2D-8B42-69591D662E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70FC9B9-73B4-4FF2-9492-703DFCCFA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="205">
   <si>
     <t>title</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>In repo</t>
-  </si>
-  <si>
-    <t>Tetris3DS</t>
   </si>
   <si>
     <t>AntonioND</t>
@@ -631,6 +628,27 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>fails after second screen</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>game tested, OK</t>
+  </si>
+  <si>
+    <t>ds file unsuccesfull</t>
+  </si>
+  <si>
+    <t>looks working, crashing when hit home</t>
+  </si>
+  <si>
+    <t>Tetris3DS DS</t>
+  </si>
+  <si>
+    <t>dowloading</t>
   </si>
 </sst>
 </file>
@@ -1093,28 +1111,28 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.21875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.21875" style="1"/>
-    <col min="11" max="11" width="35.21875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,13 +1146,13 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>54</v>
@@ -1149,7 +1167,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
@@ -1166,7 +1184,7 @@
         <v>62</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>62</v>
@@ -1181,12 +1199,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>60</v>
@@ -1198,7 +1216,7 @@
         <v>62</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>62</v>
@@ -1213,7 +1231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>78</v>
       </c>
@@ -1227,10 +1245,10 @@
         <v>63</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>62</v>
@@ -1249,7 +1267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1263,10 +1281,10 @@
         <v>63</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>62</v>
@@ -1284,7 +1302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1301,7 +1319,7 @@
         <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>62</v>
@@ -1315,16 +1333,19 @@
       <c r="J6" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>60</v>
@@ -1349,15 +1370,15 @@
         <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
@@ -1382,15 +1403,15 @@
         <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>60</v>
@@ -1417,15 +1438,15 @@
         <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>60</v>
@@ -1437,11 +1458,11 @@
         <v>62</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1451,11 +1472,14 @@
       <c r="J10" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K10" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1490,12 +1514,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>60</v>
@@ -1507,7 +1531,7 @@
         <v>62</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>62</v>
@@ -1522,12 +1546,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>86</v>
@@ -1544,7 +1568,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>58</v>
       </c>
@@ -1557,11 +1581,11 @@
       <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>193</v>
+      <c r="E14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>62</v>
@@ -1575,16 +1599,19 @@
       <c r="J14" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="K14" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="L14" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>60</v>
@@ -1596,33 +1623,33 @@
         <v>62</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>60</v>
@@ -1640,7 +1667,7 @@
         <v>70</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>61</v>
@@ -1649,13 +1676,13 @@
         <v>61</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1691,12 +1718,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>60</v>
@@ -1705,10 +1732,10 @@
         <v>63</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>62</v>
@@ -1723,9 +1750,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -1743,12 +1770,12 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>60</v>
@@ -1757,10 +1784,10 @@
         <v>63</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>62</v>
@@ -1775,7 +1802,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
@@ -1797,12 +1824,12 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>60</v>
@@ -1829,33 +1856,33 @@
         <v>67</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>88</v>
@@ -1867,12 +1894,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>60</v>
@@ -1884,10 +1911,10 @@
         <v>62</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>88</v>
@@ -1899,12 +1926,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>60</v>
@@ -1916,7 +1943,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>62</v>
@@ -1931,12 +1958,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>60</v>
@@ -1954,19 +1981,19 @@
         <v>62</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
@@ -1986,12 +2013,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>60</v>
@@ -2000,7 +2027,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>62</v>
@@ -2009,7 +2036,7 @@
         <v>62</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>61</v>
@@ -2018,15 +2045,15 @@
         <v>61</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>60</v>
@@ -2038,7 +2065,7 @@
         <v>62</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>62</v>
@@ -2053,7 +2080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -2067,10 +2094,10 @@
         <v>53</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>62</v>
@@ -2084,11 +2111,14 @@
       <c r="J30" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K30" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="L30" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -2102,10 +2132,10 @@
         <v>53</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>62</v>
@@ -2119,16 +2149,19 @@
       <c r="J31" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K31" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="L31" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>60</v>
@@ -2155,7 +2188,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -2169,10 +2202,10 @@
         <v>53</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>62</v>
@@ -2190,7 +2223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -2206,8 +2239,8 @@
       <c r="E34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>193</v>
+      <c r="F34" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>62</v>
@@ -2221,11 +2254,14 @@
       <c r="J34" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K34" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="L34" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -2241,8 +2277,12 @@
       <c r="E35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="H35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2252,19 +2292,22 @@
       <c r="J35" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K35" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="L35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>53</v>
@@ -2284,19 +2327,19 @@
         <v>67</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>45</v>
@@ -2319,13 +2362,13 @@
         <v>67</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>69</v>
       </c>
@@ -2338,11 +2381,15 @@
       <c r="D38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="E38" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="H38" s="3" t="s">
         <v>88</v>
       </c>
@@ -2352,11 +2399,14 @@
       <c r="J38" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="K38" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="L38" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -2370,10 +2420,12 @@
         <v>53</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="G39" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" s="3" t="s">
         <v>62</v>
       </c>
@@ -2387,7 +2439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -2418,7 +2470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -2449,7 +2501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -2480,7 +2532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2511,7 +2563,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -2573,12 +2625,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>60</v>
@@ -2604,7 +2656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -2625,12 +2677,12 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>60</v>
@@ -2644,7 +2696,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>61</v>
@@ -2653,13 +2705,13 @@
         <v>61</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
@@ -2690,7 +2742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -2712,7 +2764,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
@@ -2743,12 +2795,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>60</v>
@@ -2771,18 +2823,18 @@
         <v>61</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>60</v>
@@ -2808,12 +2860,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>60</v>
@@ -2839,7 +2891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
@@ -2870,7 +2922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>33</v>
       </c>
@@ -2883,11 +2935,15 @@
       <c r="D56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="E56" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="H56" s="3" t="s">
         <v>87</v>
       </c>
@@ -2897,16 +2953,19 @@
       <c r="J56" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K56" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="L56" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>60</v>
@@ -2929,10 +2988,10 @@
         <v>61</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>59</v>
       </c>
@@ -2963,7 +3022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>29</v>
       </c>
@@ -2994,12 +3053,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>60</v>
@@ -3025,7 +3084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>42</v>
       </c>
@@ -3038,11 +3097,15 @@
       <c r="D61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="E61" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="H61" s="3" t="s">
         <v>89</v>
       </c>
@@ -3053,10 +3116,10 @@
         <v>67</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>79</v>
       </c>
@@ -3069,11 +3132,15 @@
       <c r="D62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
       <c r="H62" s="3" t="s">
         <v>88</v>
       </c>
@@ -3087,7 +3154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>80</v>
       </c>
@@ -3100,11 +3167,15 @@
       <c r="D63" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
       <c r="H63" s="3" t="s">
         <v>88</v>
       </c>
@@ -3118,7 +3189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -3131,11 +3202,15 @@
       <c r="D64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
       <c r="H64" s="3" t="s">
         <v>88</v>
       </c>
@@ -3152,7 +3227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -3165,11 +3240,15 @@
       <c r="D65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
       <c r="H65" s="3" t="s">
         <v>88</v>
       </c>
@@ -3183,7 +3262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>25</v>
       </c>
@@ -3203,9 +3282,9 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
@@ -3223,7 +3302,7 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>18</v>
       </c>
@@ -3237,9 +3316,11 @@
         <v>63</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="G68" s="9"/>
       <c r="H68" s="3" t="s">
         <v>87</v>
@@ -3254,27 +3335,31 @@
         <v>63</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="C69" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="E69" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="H69" s="3" t="s">
         <v>88</v>
       </c>
@@ -3288,7 +3373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>19</v>
       </c>
@@ -3301,11 +3386,15 @@
       <c r="D70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="E70" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="H70" s="3" t="s">
         <v>87</v>
       </c>
@@ -3319,7 +3408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>23</v>
       </c>
@@ -3338,7 +3427,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>61</v>
@@ -3347,10 +3436,10 @@
         <v>61</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>34</v>
       </c>
@@ -3381,18 +3470,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
@@ -3402,16 +3491,16 @@
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
       <c r="K77" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -3421,163 +3510,163 @@
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    </row>
+    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A89" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="H91" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
-    <sortCondition ref="A2:A77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M72">
+    <sortCondition ref="A2:A72"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="M37" r:id="rId1" xr:uid="{A3E5B044-85D1-468A-A613-8725F60707A8}"/>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70FC9B9-73B4-4FF2-9492-703DFCCFA528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7240C27-B2E3-4F2F-B3D1-8ACBD7A1E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="209">
   <si>
     <t>title</t>
   </si>
@@ -627,9 +627,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>fails after second screen</t>
   </si>
   <si>
@@ -649,6 +646,21 @@
   </si>
   <si>
     <t>dowloading</t>
+  </si>
+  <si>
+    <t>cia added, 3dsx corrected</t>
+  </si>
+  <si>
+    <t>donwloading</t>
+  </si>
+  <si>
+    <t>not possible</t>
+  </si>
+  <si>
+    <t>3d galsses icon nneded</t>
+  </si>
+  <si>
+    <t>something wrong with the donwload</t>
   </si>
 </sst>
 </file>
@@ -701,7 +713,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +768,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -770,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -819,6 +837,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,10 +1135,10 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,8 +1207,8 @@
       <c r="E2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>188</v>
+      <c r="F2" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>62</v>
@@ -1198,8 +1222,12 @@
       <c r="J2" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>175</v>
       </c>
@@ -1212,11 +1240,11 @@
       <c r="D3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>188</v>
+      <c r="E3" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>62</v>
@@ -1230,8 +1258,12 @@
       <c r="J3" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>78</v>
       </c>
@@ -1244,8 +1276,8 @@
       <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>192</v>
+      <c r="E4" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>196</v>
@@ -1256,13 +1288,15 @@
       <c r="H4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>64</v>
+      <c r="I4" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>63</v>
       </c>
@@ -1298,6 +1332,9 @@
       <c r="J5" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1334,7 +1371,7 @@
         <v>61</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>63</v>
@@ -1389,7 +1426,9 @@
       <c r="E8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G8" s="17" t="s">
         <v>62</v>
       </c>
@@ -1397,13 +1436,13 @@
         <v>88</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>193</v>
+      <c r="K8" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1461,7 +1500,7 @@
         <v>196</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>62</v>
@@ -1473,7 +1512,7 @@
         <v>61</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>107</v>
@@ -1530,8 +1569,8 @@
       <c r="E12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>188</v>
+      <c r="F12" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>62</v>
@@ -1540,10 +1579,13 @@
         <v>88</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>67</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1600,7 +1642,7 @@
         <v>67</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>63</v>
@@ -1942,8 +1984,8 @@
       <c r="E25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>188</v>
+      <c r="F25" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>62</v>
@@ -1952,10 +1994,13 @@
         <v>88</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>67</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1988,6 +2033,9 @@
       </c>
       <c r="J26" s="3" t="s">
         <v>61</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>123</v>
@@ -2044,6 +2092,9 @@
       <c r="J28" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="K28" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>99</v>
       </c>
@@ -2112,7 +2163,7 @@
         <v>61</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>63</v>
@@ -2150,7 +2201,7 @@
         <v>61</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>63</v>
@@ -2255,7 +2306,7 @@
         <v>61</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>63</v>
@@ -2293,7 +2344,7 @@
         <v>61</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>63</v>
@@ -2400,7 +2451,7 @@
         <v>67</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>63</v>
@@ -2420,7 +2471,7 @@
         <v>53</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
@@ -2954,7 +3005,7 @@
         <v>61</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>63</v>
@@ -3340,7 +3391,7 @@
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>97</v>
@@ -3358,7 +3409,7 @@
         <v>62</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>88</v>
@@ -3393,7 +3444,7 @@
         <v>62</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>87</v>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA50EB67-669D-4474-9575-100F9C15F89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02424A10-2B0F-4026-AA5C-2486BEF1B86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="204">
   <si>
     <t>title</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>screenshots</t>
-  </si>
-  <si>
-    <t>one qr code</t>
   </si>
   <si>
     <t>Colossal Cave Adventure 2.5 for 3ds</t>
@@ -619,9 +616,6 @@
   </si>
   <si>
     <t>donwloading</t>
-  </si>
-  <si>
-    <t>not possible</t>
   </si>
   <si>
     <t>3d galsses icon nneded</t>
@@ -691,12 +685,15 @@
   <si>
     <t>rom unsccesful</t>
   </si>
+  <si>
+    <t>qr too</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +752,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -827,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -878,10 +891,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1174,28 +1190,28 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="27.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.26953125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.26953125" style="1"/>
+    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,13 +1225,13 @@
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>48</v>
@@ -1224,421 +1240,421 @@
         <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>156</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>200</v>
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1647,126 +1663,126 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1778,72 +1794,72 @@
         <v>47</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>198</v>
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1852,298 +1868,298 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="M21" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="G24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2151,37 +2167,37 @@
         <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -2189,104 +2205,104 @@
         <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="G31" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +2310,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>47</v>
@@ -2303,28 +2319,28 @@
         <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2332,7 +2348,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>47</v>
@@ -2341,36 +2357,36 @@
         <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>47</v>
@@ -2381,28 +2397,28 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>41</v>
@@ -2416,60 +2432,60 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
@@ -2477,37 +2493,37 @@
         <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>198</v>
+      <c r="E37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -2515,110 +2531,110 @@
         <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2626,83 +2642,83 @@
         <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>198</v>
+      <c r="E42" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>47</v>
@@ -2711,36 +2727,36 @@
         <v>49</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>47</v>
@@ -2749,32 +2765,32 @@
         <v>49</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="18" t="s">
-        <v>198</v>
+      <c r="G44" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2783,89 +2799,89 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>203</v>
+        <v>54</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
@@ -2873,121 +2889,121 @@
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>202</v>
+        <v>54</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>200</v>
+        <v>55</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>47</v>
@@ -2998,30 +3014,30 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I51" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>43</v>
@@ -3029,65 +3045,65 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>47</v>
@@ -3098,30 +3114,30 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>53</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>43</v>
@@ -3129,65 +3145,65 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>200</v>
+        <v>55</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>47</v>
@@ -3198,203 +3214,212 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="J62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3403,12 +3428,12 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>16</v>
       </c>
@@ -3416,119 +3441,119 @@
         <v>45</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="I65" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>49</v>
@@ -3536,19 +3561,19 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>31</v>
       </c>
@@ -3556,10 +3581,10 @@
         <v>45</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>43</v>
@@ -3567,30 +3592,30 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -3600,16 +3625,16 @@
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -3619,157 +3644,157 @@
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A85" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="H87" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02424A10-2B0F-4026-AA5C-2486BEF1B86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F4F5D6-12D8-42A1-8C8E-ADD342C4B965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="203">
   <si>
     <t>title</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>downloading</t>
-  </si>
-  <si>
-    <t>ezek itt zavarosak</t>
   </si>
   <si>
     <t>missing!!!</t>
@@ -1190,10 +1187,10 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1260,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>55</v>
@@ -1278,7 +1275,7 @@
         <v>60</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L2" s="17"/>
     </row>
@@ -1296,10 +1293,10 @@
         <v>56</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>55</v>
@@ -1314,7 +1311,7 @@
         <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L3" s="17"/>
     </row>
@@ -1332,10 +1329,10 @@
         <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>55</v>
@@ -1347,10 +1344,10 @@
         <v>54</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>56</v>
@@ -1373,7 +1370,7 @@
         <v>178</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>55</v>
@@ -1388,7 +1385,7 @@
         <v>54</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>56</v>
@@ -1411,7 +1408,7 @@
         <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>55</v>
@@ -1426,7 +1423,7 @@
         <v>54</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>56</v>
@@ -1448,7 +1445,9 @@
       <c r="E7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="G7" s="15" t="s">
         <v>55</v>
       </c>
@@ -1460,9 +1459,6 @@
       </c>
       <c r="J7" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1482,7 +1478,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>55</v>
@@ -1497,7 +1493,7 @@
         <v>60</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1520,7 +1516,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>81</v>
@@ -1532,7 +1528,7 @@
         <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1552,10 +1548,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>55</v>
@@ -1567,7 +1563,7 @@
         <v>54</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -1593,7 +1589,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>81</v>
@@ -1605,7 +1601,7 @@
         <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>56</v>
@@ -1628,7 +1624,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>55</v>
@@ -1643,7 +1639,7 @@
         <v>60</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1669,7 +1665,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1685,7 +1681,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>55</v>
@@ -1700,7 +1696,7 @@
         <v>60</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>56</v>
@@ -1800,7 +1796,7 @@
         <v>55</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>83</v>
@@ -1812,7 +1808,7 @@
         <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>56</v>
@@ -1835,10 +1831,10 @@
         <v>56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>55</v>
@@ -1887,10 +1883,10 @@
         <v>56</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>55</v>
@@ -1905,11 +1901,11 @@
         <v>60</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1943,7 +1939,7 @@
         <v>174</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1966,7 +1962,7 @@
         <v>178</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>81</v>
@@ -1978,7 +1974,7 @@
         <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -2001,7 +1997,7 @@
         <v>178</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>81</v>
@@ -2013,11 +2009,11 @@
         <v>60</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2033,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>55</v>
@@ -2048,7 +2044,7 @@
         <v>60</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2083,7 +2079,7 @@
         <v>54</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>114</v>
@@ -2121,7 +2117,7 @@
         <v>54</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>91</v>
@@ -2173,10 +2169,10 @@
         <v>47</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>55</v>
@@ -2191,7 +2187,7 @@
         <v>54</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>56</v>
@@ -2211,10 +2207,10 @@
         <v>47</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>55</v>
@@ -2229,7 +2225,7 @@
         <v>54</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>56</v>
@@ -2319,7 +2315,7 @@
         <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>55</v>
@@ -2334,7 +2330,7 @@
         <v>54</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>56</v>
@@ -2372,7 +2368,7 @@
         <v>54</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>56</v>
@@ -2464,7 +2460,7 @@
         <v>55</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>55</v>
@@ -2479,7 +2475,7 @@
         <v>60</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>56</v>
@@ -2499,10 +2495,10 @@
         <v>47</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>55</v>
@@ -2517,7 +2513,7 @@
         <v>54</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>56</v>
@@ -2537,10 +2533,10 @@
         <v>47</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>55</v>
@@ -2555,7 +2551,7 @@
         <v>54</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>56</v>
@@ -2575,10 +2571,10 @@
         <v>47</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>55</v>
@@ -2613,7 +2609,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>55</v>
@@ -2628,7 +2624,7 @@
         <v>54</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>56</v>
@@ -2651,7 +2647,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>55</v>
@@ -2666,7 +2662,7 @@
         <v>54</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>56</v>
@@ -2686,7 +2682,7 @@
         <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>55</v>
@@ -2704,7 +2700,7 @@
         <v>54</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>56</v>
@@ -2727,7 +2723,7 @@
         <v>49</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>55</v>
@@ -2742,7 +2738,7 @@
         <v>54</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>56</v>
@@ -2766,7 +2762,7 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>55</v>
@@ -2778,7 +2774,7 @@
         <v>54</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>56</v>
@@ -2822,7 +2818,7 @@
         <v>55</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>55</v>
@@ -2837,7 +2833,7 @@
         <v>54</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>56</v>
@@ -2860,7 +2856,7 @@
         <v>55</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>55</v>
@@ -2875,7 +2871,7 @@
         <v>54</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>56</v>
@@ -2895,10 +2891,10 @@
         <v>47</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>55</v>
@@ -2913,7 +2909,7 @@
         <v>54</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>56</v>
@@ -2936,7 +2932,7 @@
         <v>55</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>55</v>
@@ -2951,7 +2947,7 @@
         <v>54</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>56</v>
@@ -2977,7 +2973,7 @@
         <v>55</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>80</v>
@@ -2989,7 +2985,7 @@
         <v>54</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>56</v>
@@ -3074,7 +3070,7 @@
         <v>55</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>55</v>
@@ -3089,7 +3085,7 @@
         <v>54</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>56</v>
@@ -3177,7 +3173,7 @@
         <v>55</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>80</v>
@@ -3189,7 +3185,7 @@
         <v>54</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>56</v>
@@ -3293,7 +3289,7 @@
         <v>54</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>56</v>
@@ -3331,7 +3327,7 @@
         <v>54</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>56</v>
@@ -3357,7 +3353,7 @@
         <v>55</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>81</v>
@@ -3407,7 +3403,7 @@
         <v>54</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>56</v>
@@ -3471,7 +3467,7 @@
     </row>
     <row r="65" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>89</v>
@@ -3489,7 +3485,7 @@
         <v>55</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>81</v>
@@ -3524,7 +3520,7 @@
         <v>55</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>80</v>
@@ -3536,7 +3532,7 @@
         <v>54</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>56</v>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F4F5D6-12D8-42A1-8C8E-ADD342C4B965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C251D55-F8EA-4654-895D-B5FF8D8343A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="205">
   <si>
     <t>title</t>
   </si>
@@ -369,9 +369,6 @@
     <t>Clock [E]</t>
   </si>
   <si>
-    <t>Doom 3DS GBA [E]</t>
-  </si>
-  <si>
     <t>Five Night at Freddy's 1-4</t>
   </si>
   <si>
@@ -607,12 +604,6 @@
   </si>
   <si>
     <t>retest</t>
-  </si>
-  <si>
-    <t>cia added, 3dsx corrected</t>
-  </si>
-  <si>
-    <t>donwloading</t>
   </si>
   <si>
     <t>3d galsses icon nneded</t>
@@ -684,6 +675,21 @@
   </si>
   <si>
     <t>qr too</t>
+  </si>
+  <si>
+    <t>next test</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>downloading full</t>
+  </si>
+  <si>
+    <t>rar file</t>
+  </si>
+  <si>
+    <t>3 different links</t>
   </si>
 </sst>
 </file>
@@ -768,7 +774,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +829,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -837,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -861,9 +873,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -891,10 +900,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1184,13 +1205,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1222,13 +1243,13 @@
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>48</v>
@@ -1256,13 +1277,13 @@
       <c r="D2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1275,16 +1296,16 @@
         <v>60</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>165</v>
+        <v>186</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>53</v>
@@ -1292,13 +1313,13 @@
       <c r="D3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1311,9 +1332,9 @@
         <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L3" s="17"/>
+        <v>200</v>
+      </c>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1329,12 +1350,12 @@
         <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1344,10 +1365,10 @@
         <v>54</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>56</v>
@@ -1366,13 +1387,13 @@
       <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>178</v>
+      <c r="E5" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1385,7 +1406,7 @@
         <v>54</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>56</v>
@@ -1404,13 +1425,13 @@
       <c r="D6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1423,7 +1444,7 @@
         <v>54</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>56</v>
@@ -1431,10 +1452,10 @@
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>53</v>
@@ -1442,13 +1463,13 @@
       <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1463,10 +1484,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
@@ -1474,13 +1495,13 @@
       <c r="D8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1493,15 +1514,15 @@
         <v>60</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>53</v>
@@ -1509,14 +1530,14 @@
       <c r="D9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>197</v>
+      <c r="E9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>81</v>
@@ -1528,7 +1549,7 @@
         <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1544,14 +1565,14 @@
       <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>55</v>
@@ -1563,7 +1584,7 @@
         <v>54</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -1582,14 +1603,14 @@
       <c r="D11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>197</v>
+      <c r="E11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>81</v>
@@ -1601,7 +1622,7 @@
         <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>56</v>
@@ -1609,10 +1630,10 @@
     </row>
     <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>53</v>
@@ -1620,13 +1641,13 @@
       <c r="D12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G12" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1639,30 +1660,34 @@
         <v>60</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="D13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1677,13 +1702,13 @@
       <c r="D14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1696,7 +1721,7 @@
         <v>60</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>56</v>
@@ -1707,34 +1732,34 @@
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>91</v>
@@ -1745,26 +1770,26 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I16" s="3" t="s">
         <v>54</v>
       </c>
@@ -1772,7 +1797,7 @@
         <v>54</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>91</v>
@@ -1789,14 +1814,14 @@
       <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>83</v>
@@ -1808,7 +1833,7 @@
         <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>56</v>
@@ -1819,10 +1844,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>53</v>
@@ -1830,13 +1855,13 @@
       <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="E18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1849,32 +1874,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>144</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>53</v>
@@ -1882,34 +1922,37 @@
       <c r="D20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>55</v>
+      <c r="E20" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>60</v>
+      <c r="I20" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>172</v>
+      <c r="K20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>53</v>
@@ -1917,14 +1960,14 @@
       <c r="D21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
+      <c r="E21" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>81</v>
@@ -1936,10 +1979,7 @@
         <v>60</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1956,33 +1996,33 @@
         <v>56</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>178</v>
+        <v>55</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>168</v>
+      <c r="A23" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>53</v>
@@ -1990,69 +2030,72 @@
       <c r="D23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>195</v>
+      <c r="E23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K23" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>60</v>
+        <v>114</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>53</v>
@@ -2060,104 +2103,104 @@
       <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="E25" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>60</v>
+      <c r="L27" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>45</v>
@@ -2168,13 +2211,13 @@
       <c r="D28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>190</v>
+      <c r="E28" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -2187,88 +2230,85 @@
         <v>54</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
+      <c r="A29" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>63</v>
+      <c r="E30" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>60</v>
+      <c r="J30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>53</v>
@@ -2279,10 +2319,10 @@
       <c r="E31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -2294,13 +2334,16 @@
       <c r="J31" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="K31" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="L31" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>45</v>
@@ -2312,12 +2355,12 @@
         <v>47</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -2329,60 +2372,61 @@
       <c r="J32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>187</v>
+      <c r="K32" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>14</v>
+    <row r="33" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>55</v>
+        <v>181</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>185</v>
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>37</v>
+      <c r="A34" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>121</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>47</v>
@@ -2398,92 +2442,95 @@
       <c r="I34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
+      <c r="K34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>126</v>
+      <c r="K35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>187</v>
+      <c r="J36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>45</v>
@@ -2494,17 +2541,17 @@
       <c r="D37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="15" t="s">
+      <c r="E37" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>54</v>
@@ -2512,8 +2559,8 @@
       <c r="J37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>198</v>
+      <c r="K37" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>56</v>
@@ -2521,10 +2568,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>53</v>
@@ -2532,13 +2579,13 @@
       <c r="D38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="E38" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -2550,43 +2597,43 @@
       <c r="J38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="L38" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>54</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>56</v>
@@ -2594,24 +2641,24 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -2624,18 +2671,18 @@
         <v>54</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>53</v>
@@ -2643,13 +2690,13 @@
       <c r="D41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="15" t="s">
+      <c r="E41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -2662,18 +2709,18 @@
         <v>54</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>53</v>
@@ -2681,13 +2728,13 @@
       <c r="D42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="15" t="s">
+      <c r="E42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -2700,18 +2747,18 @@
         <v>54</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>20</v>
+    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>53</v>
@@ -2722,109 +2769,109 @@
       <c r="E43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>55</v>
+      <c r="F43" s="7"/>
+      <c r="G43" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>54</v>
+      <c r="I43" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>187</v>
+      <c r="K43" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="E45" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G46" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>54</v>
@@ -2832,8 +2879,8 @@
       <c r="J46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="18" t="s">
-        <v>200</v>
+      <c r="K46" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>56</v>
@@ -2841,24 +2888,24 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G47" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -2871,7 +2918,7 @@
         <v>54</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>56</v>
@@ -2879,10 +2926,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>53</v>
@@ -2891,16 +2938,16 @@
         <v>47</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>54</v>
@@ -2908,8 +2955,8 @@
       <c r="J48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>187</v>
+      <c r="K48" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>56</v>
@@ -2917,7 +2964,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>89</v>
@@ -2928,14 +2975,14 @@
       <c r="D49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>55</v>
+      <c r="E49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>80</v>
@@ -2946,19 +2993,19 @@
       <c r="J49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K49" s="18" t="s">
-        <v>199</v>
+      <c r="K49" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>53</v>
@@ -2966,14 +3013,14 @@
       <c r="D50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>197</v>
+      <c r="E50" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>80</v>
@@ -2984,39 +3031,40 @@
       <c r="J50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="L50" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="H51" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>54</v>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>56</v>
@@ -3024,41 +3072,48 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="H52" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>60</v>
+      <c r="J52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>30</v>
+      <c r="A53" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>53</v>
@@ -3066,15 +3121,11 @@
       <c r="D53" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="E53" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="3" t="s">
         <v>80</v>
       </c>
@@ -3084,81 +3135,89 @@
       <c r="J53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
-        <v>23</v>
+      <c r="K53" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="H54" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>120</v>
+      <c r="J54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="H55" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="7" t="s">
-        <v>60</v>
+      <c r="J55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>53</v>
@@ -3166,14 +3225,14 @@
       <c r="D56" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>197</v>
+      <c r="E56" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>80</v>
@@ -3184,47 +3243,48 @@
       <c r="J56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="L56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>27</v>
+      <c r="A57" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="H57" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
-        <v>38</v>
+      <c r="A58" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>65</v>
@@ -3235,31 +3295,34 @@
       <c r="D58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" s="15" t="s">
+      <c r="E58" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>63</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>65</v>
@@ -3270,10 +3333,10 @@
       <c r="D59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="15" t="s">
+      <c r="E59" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -3289,18 +3352,18 @@
         <v>54</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>53</v>
@@ -3308,14 +3371,14 @@
       <c r="D60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>63</v>
+      <c r="E60" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>81</v>
@@ -3326,8 +3389,8 @@
       <c r="J60" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>202</v>
+      <c r="K60" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>56</v>
@@ -3335,10 +3398,10 @@
     </row>
     <row r="61" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>53</v>
@@ -3346,205 +3409,206 @@
       <c r="D61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>195</v>
+      <c r="E61" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K61" s="19" t="s">
-        <v>76</v>
+      <c r="K61" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="A62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C67" s="3" t="s">
         <v>53</v>
       </c>
@@ -3552,12 +3616,12 @@
         <v>56</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="3" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>54</v>
@@ -3566,240 +3630,209 @@
         <v>54</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L68" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11" t="s">
+    </row>
+    <row r="73" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11" t="s">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
-        <v>150</v>
+      <c r="A78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>154</v>
+        <v>104</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>141</v>
+        <v>168</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="B85" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
       <c r="H86" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="H87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J47" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M68">
-    <sortCondition ref="A2:A68"/>
+  <autoFilter ref="A1:J46" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M67">
+    <sortCondition ref="A2:A67"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="M35" r:id="rId1" xr:uid="{A3E5B044-85D1-468A-A613-8725F60707A8}"/>
+    <hyperlink ref="M34" r:id="rId1" xr:uid="{A3E5B044-85D1-468A-A613-8725F60707A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C251D55-F8EA-4654-895D-B5FF8D8343A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE02A20-4318-4C7F-BDC9-39A8B5408452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="208">
   <si>
     <t>title</t>
   </si>
@@ -576,9 +576,6 @@
     <t>3d pinball space cadet</t>
   </si>
   <si>
-    <t>installing</t>
-  </si>
-  <si>
     <t>downloading</t>
   </si>
   <si>
@@ -613,9 +610,6 @@
   </si>
   <si>
     <t>long</t>
-  </si>
-  <si>
-    <t>not runing, wrong exploit</t>
   </si>
   <si>
     <t>rom</t>
@@ -677,9 +671,6 @@
     <t>qr too</t>
   </si>
   <si>
-    <t>next test</t>
-  </si>
-  <si>
     <t>not yet</t>
   </si>
   <si>
@@ -689,7 +680,25 @@
     <t>rar file</t>
   </si>
   <si>
-    <t>3 different links</t>
+    <t>crashes after download</t>
+  </si>
+  <si>
+    <t>not runing, wrong exploit, CIA works</t>
+  </si>
+  <si>
+    <t>starts, but crashes</t>
+  </si>
+  <si>
+    <t>extracts</t>
+  </si>
+  <si>
+    <t>made on 3ds</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>wrong directory to extract 3ds file 2 player files are wrong</t>
   </si>
 </sst>
 </file>
@@ -849,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -916,6 +925,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1208,10 +1220,10 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,7 +1293,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>55</v>
@@ -1296,12 +1308,12 @@
         <v>60</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1313,11 +1325,11 @@
       <c r="D3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>200</v>
+      <c r="E3" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>55</v>
@@ -1331,8 +1343,8 @@
       <c r="J3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>200</v>
+      <c r="K3" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="L3" s="16"/>
     </row>
@@ -1350,10 +1362,10 @@
         <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>55</v>
@@ -1365,10 +1377,10 @@
         <v>54</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>56</v>
@@ -1387,11 +1399,11 @@
       <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>200</v>
+      <c r="E5" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>55</v>
@@ -1406,7 +1418,7 @@
         <v>54</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>56</v>
@@ -1429,7 +1441,7 @@
         <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>55</v>
@@ -1444,7 +1456,7 @@
         <v>54</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>56</v>
@@ -1466,8 +1478,8 @@
       <c r="E7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>181</v>
+      <c r="F7" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>55</v>
@@ -1499,7 +1511,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>55</v>
@@ -1514,7 +1526,7 @@
         <v>60</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1537,7 +1549,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>81</v>
@@ -1549,7 +1561,7 @@
         <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1569,10 +1581,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>55</v>
@@ -1584,7 +1596,7 @@
         <v>54</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -1610,7 +1622,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>81</v>
@@ -1622,7 +1634,7 @@
         <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>56</v>
@@ -1645,7 +1657,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>55</v>
@@ -1660,7 +1672,7 @@
         <v>60</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1677,7 +1689,7 @@
         <v>56</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>63</v>
@@ -1706,7 +1718,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>55</v>
@@ -1721,13 +1733,13 @@
         <v>60</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1743,11 +1755,11 @@
       <c r="E15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>200</v>
+      <c r="F15" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>131</v>
@@ -1765,7 +1777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1781,11 +1793,11 @@
       <c r="E16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>200</v>
+      <c r="F16" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>131</v>
@@ -1796,7 +1808,7 @@
       <c r="J16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>131</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1821,7 +1833,7 @@
         <v>55</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>83</v>
@@ -1833,7 +1845,7 @@
         <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>56</v>
@@ -1843,7 +1855,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1855,11 +1867,11 @@
       <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>189</v>
+      <c r="E18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>55</v>
@@ -1873,9 +1885,12 @@
       <c r="J18" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="K18" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1887,11 +1902,11 @@
       <c r="D19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>189</v>
+      <c r="E19" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>55</v>
@@ -1899,14 +1914,14 @@
       <c r="H19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>60</v>
+      <c r="I19" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -1923,10 +1938,10 @@
         <v>56</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>63</v>
@@ -1944,7 +1959,7 @@
         <v>173</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1960,14 +1975,14 @@
       <c r="D21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>189</v>
+      <c r="E21" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>81</v>
@@ -1979,7 +1994,7 @@
         <v>60</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1999,10 +2014,10 @@
         <v>55</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>81</v>
@@ -2014,7 +2029,7 @@
         <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -2034,7 +2049,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>55</v>
@@ -2049,7 +2064,7 @@
         <v>60</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2084,13 +2099,13 @@
         <v>54</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2104,7 +2119,7 @@
         <v>47</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>55</v>
@@ -2122,7 +2137,7 @@
         <v>54</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>91</v>
@@ -2145,7 +2160,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>55</v>
@@ -2173,11 +2188,11 @@
       <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>189</v>
+      <c r="E27" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>55</v>
@@ -2192,7 +2207,7 @@
         <v>54</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>56</v>
@@ -2211,11 +2226,11 @@
       <c r="D28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>189</v>
+      <c r="E28" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>55</v>
@@ -2230,7 +2245,7 @@
         <v>54</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>56</v>
@@ -2249,14 +2264,14 @@
       <c r="D29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>189</v>
+      <c r="E29" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>81</v>
@@ -2266,6 +2281,9 @@
       </c>
       <c r="J29" s="7" t="s">
         <v>60</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -2281,11 +2299,11 @@
       <c r="D30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>189</v>
+      <c r="E30" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>55</v>
@@ -2316,11 +2334,11 @@
       <c r="D31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>181</v>
+      <c r="E31" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>55</v>
@@ -2335,7 +2353,7 @@
         <v>54</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>56</v>
@@ -2354,11 +2372,11 @@
       <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>181</v>
+      <c r="E32" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>55</v>
@@ -2373,7 +2391,7 @@
         <v>54</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>56</v>
@@ -2392,17 +2410,17 @@
       <c r="D33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>181</v>
+      <c r="E33" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>54</v>
@@ -2469,7 +2487,7 @@
         <v>55</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>55</v>
@@ -2484,7 +2502,7 @@
         <v>60</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>56</v>
@@ -2504,10 +2522,10 @@
         <v>47</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>55</v>
@@ -2522,7 +2540,7 @@
         <v>54</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>56</v>
@@ -2541,11 +2559,11 @@
       <c r="D37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>55</v>
@@ -2560,7 +2578,7 @@
         <v>54</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>56</v>
@@ -2579,8 +2597,8 @@
       <c r="D38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>177</v>
+      <c r="E38" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>177</v>
@@ -2618,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>55</v>
@@ -2633,7 +2651,7 @@
         <v>54</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>56</v>
@@ -2656,7 +2674,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>55</v>
@@ -2671,7 +2689,7 @@
         <v>54</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>56</v>
@@ -2691,7 +2709,7 @@
         <v>47</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>55</v>
@@ -2709,7 +2727,7 @@
         <v>54</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>56</v>
@@ -2732,7 +2750,7 @@
         <v>49</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>55</v>
@@ -2747,7 +2765,7 @@
         <v>54</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>56</v>
@@ -2771,7 +2789,7 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>55</v>
@@ -2783,7 +2801,7 @@
         <v>54</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>56</v>
@@ -2827,7 +2845,7 @@
         <v>55</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>55</v>
@@ -2842,7 +2860,7 @@
         <v>54</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>56</v>
@@ -2865,7 +2883,7 @@
         <v>55</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>55</v>
@@ -2880,7 +2898,7 @@
         <v>54</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>56</v>
@@ -2899,11 +2917,11 @@
       <c r="D47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>189</v>
+      <c r="E47" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>55</v>
@@ -2918,7 +2936,7 @@
         <v>54</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>56</v>
@@ -2941,7 +2959,7 @@
         <v>55</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>55</v>
@@ -2956,7 +2974,7 @@
         <v>54</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>56</v>
@@ -2982,7 +3000,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>80</v>
@@ -2994,13 +3012,13 @@
         <v>54</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3016,8 +3034,8 @@
       <c r="E50" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>181</v>
+      <c r="F50" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>55</v>
@@ -3049,10 +3067,10 @@
         <v>56</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>55</v>
@@ -3087,7 +3105,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>55</v>
@@ -3102,7 +3120,7 @@
         <v>54</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>56</v>
@@ -3153,10 +3171,10 @@
         <v>56</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>55</v>
@@ -3194,7 +3212,7 @@
         <v>55</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>80</v>
@@ -3206,13 +3224,13 @@
         <v>54</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3228,8 +3246,8 @@
       <c r="E56" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>181</v>
+      <c r="F56" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>55</v>
@@ -3242,6 +3260,9 @@
       </c>
       <c r="J56" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>56</v>
@@ -3301,8 +3322,8 @@
       <c r="F58" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>63</v>
+      <c r="G58" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>81</v>
@@ -3314,7 +3335,7 @@
         <v>54</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>56</v>
@@ -3339,8 +3360,8 @@
       <c r="F59" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>63</v>
+      <c r="G59" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>81</v>
@@ -3352,7 +3373,7 @@
         <v>54</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>56</v>
@@ -3378,7 +3399,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>81</v>
@@ -3415,8 +3436,8 @@
       <c r="F61" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>63</v>
+      <c r="G61" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>81</v>
@@ -3428,7 +3449,7 @@
         <v>54</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>56</v>
@@ -3467,13 +3488,13 @@
       <c r="D63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="E63" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" s="14" t="s">
         <v>55</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -3485,6 +3506,9 @@
       <c r="J63" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="K63" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="L63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3494,7 +3518,7 @@
     </row>
     <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>89</v>
@@ -3512,7 +3536,7 @@
         <v>55</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>81</v>
@@ -3524,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>54</v>
@@ -3550,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>80</v>
@@ -3562,7 +3586,7 @@
         <v>54</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>56</v>
@@ -3596,7 +3620,7 @@
         <v>54</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>116</v>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE02A20-4318-4C7F-BDC9-39A8B5408452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A367C8-27C5-41AB-BE98-B7E5BADBB864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="208">
   <si>
     <t>title</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Updated, new, complete source added</t>
   </si>
   <si>
-    <t>Not yet</t>
-  </si>
-  <si>
     <t>developer</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
   </si>
   <si>
     <t>magyarzeldak.hu</t>
-  </si>
-  <si>
-    <t>videókat szét kell vágni, 50 mega felett van</t>
   </si>
   <si>
     <t>Celeste Classic GBA</t>
@@ -366,9 +360,6 @@
     <t>no datafile for full in universal</t>
   </si>
   <si>
-    <t>Clock [E]</t>
-  </si>
-  <si>
     <t>Five Night at Freddy's 1-4</t>
   </si>
   <si>
@@ -565,9 +556,6 @@
   </si>
   <si>
     <t>otherfiles tested</t>
-  </si>
-  <si>
-    <t>bad</t>
   </si>
   <si>
     <t>For-Anyone-Who-Walks-Revamp</t>
@@ -671,21 +659,12 @@
     <t>qr too</t>
   </si>
   <si>
-    <t>not yet</t>
-  </si>
-  <si>
     <t>downloading full</t>
   </si>
   <si>
     <t>rar file</t>
   </si>
   <si>
-    <t>crashes after download</t>
-  </si>
-  <si>
-    <t>not runing, wrong exploit, CIA works</t>
-  </si>
-  <si>
     <t>starts, but crashes</t>
   </si>
   <si>
@@ -699,13 +678,34 @@
   </si>
   <si>
     <t>wrong directory to extract 3ds file 2 player files are wrong</t>
+  </si>
+  <si>
+    <t>videok szétbontva</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>3dsx not runing, wrong exploit, CIA works</t>
+  </si>
+  <si>
+    <t>downloading, not wrking</t>
+  </si>
+  <si>
+    <t>3 version, not all tested</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>crashes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,6 +780,14 @@
       <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -858,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -909,25 +917,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1220,10 +1231,10 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1246,34 +1257,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1281,109 +1292,109 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1391,37 +1402,37 @@
         <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1429,139 +1440,139 @@
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>192</v>
+        <v>54</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1569,212 +1580,217 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>158</v>
+      <c r="A12" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>203</v>
+        <v>54</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -1782,37 +1798,37 @@
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>203</v>
+        <v>54</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>131</v>
+        <v>53</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -1824,285 +1840,285 @@
         <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2110,69 +2126,72 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -2180,37 +2199,37 @@
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -2218,107 +2237,104 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>191</v>
+        <v>176</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2326,37 +2342,37 @@
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2364,37 +2380,37 @@
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>183</v>
+        <v>53</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -2402,37 +2418,37 @@
         <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M33" s="6"/>
     </row>
@@ -2441,71 +2457,71 @@
         <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -2513,75 +2529,75 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>204</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>202</v>
+        <v>53</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -2589,34 +2605,37 @@
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>177</v>
+        <v>46</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -2624,37 +2643,37 @@
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
@@ -2662,37 +2681,37 @@
         <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2700,37 +2719,37 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -2738,37 +2757,37 @@
         <v>20</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2776,35 +2795,35 @@
         <v>18</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2813,7 +2832,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2822,7 +2841,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -2833,37 +2852,37 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -2871,37 +2890,37 @@
         <v>33</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -2909,37 +2928,37 @@
         <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -2947,37 +2966,37 @@
         <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
@@ -2985,37 +3004,37 @@
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
@@ -3023,69 +3042,75 @@
         <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>180</v>
+        <v>55</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
@@ -3093,103 +3118,110 @@
         <v>30</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="L52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H53" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>180</v>
+        <v>55</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -3197,37 +3229,37 @@
         <v>26</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -3235,37 +3267,37 @@
         <v>27</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3273,195 +3305,195 @@
         <v>38</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>191</v>
+        <v>54</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3470,7 +3502,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -3480,78 +3512,78 @@
         <v>16</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="J63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>206</v>
+        <v>53</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>200</v>
+        <v>59</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -3559,37 +3591,35 @@
         <v>17</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K65" s="3"/>
       <c r="L65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -3597,33 +3627,37 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="H66" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>201</v>
+        <v>53</v>
+      </c>
+      <c r="K66" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3631,44 +3665,49 @@
         <v>31</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="H67" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K67" s="3"/>
       <c r="L67" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -3678,16 +3717,16 @@
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
       <c r="K72" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -3697,134 +3736,134 @@
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
       <c r="K73" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A84" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="H86" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -3833,21 +3872,21 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A367C8-27C5-41AB-BE98-B7E5BADBB864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B529EF6-3181-4653-A1EA-69F2952E3B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="212">
   <si>
     <t>title</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Reported to UniDB</t>
   </si>
   <si>
-    <t>no file in unidb</t>
-  </si>
-  <si>
     <t>raptor</t>
   </si>
   <si>
@@ -559,9 +556,6 @@
   </si>
   <si>
     <t>For-Anyone-Who-Walks-Revamp</t>
-  </si>
-  <si>
-    <t>3d pinball space cadet</t>
   </si>
   <si>
     <t>downloading</t>
@@ -699,6 +693,24 @@
   </si>
   <si>
     <t>crashes</t>
+  </si>
+  <si>
+    <t>Space Cadet Pinball</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>exits</t>
+  </si>
+  <si>
+    <t>some problem</t>
+  </si>
+  <si>
+    <t>gamebrew dowload problem?</t>
   </si>
 </sst>
 </file>
@@ -866,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -939,6 +951,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,13 +1243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A86" sqref="A86"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1252,7 +1267,7 @@
     <col min="12" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,13 +1281,13 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>47</v>
@@ -1287,7 +1302,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>54</v>
@@ -1319,16 +1334,16 @@
         <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>52</v>
@@ -1337,10 +1352,10 @@
         <v>55</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>54</v>
@@ -1355,11 +1370,11 @@
         <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1373,10 +1388,10 @@
         <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>54</v>
@@ -1388,16 +1403,16 @@
         <v>53</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1411,10 +1426,10 @@
         <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>54</v>
@@ -1429,13 +1444,13 @@
         <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>54</v>
@@ -1467,18 +1482,18 @@
         <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>52</v>
@@ -1490,7 +1505,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>54</v>
@@ -1504,13 +1519,16 @@
       <c r="J7" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K7" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>52</v>
@@ -1522,7 +1540,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>54</v>
@@ -1537,15 +1555,15 @@
         <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>52</v>
@@ -1560,7 +1578,7 @@
         <v>54</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>79</v>
@@ -1572,10 +1590,10 @@
         <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1592,10 +1610,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>54</v>
@@ -1607,13 +1625,13 @@
         <v>53</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1633,7 +1651,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>79</v>
@@ -1645,18 +1663,18 @@
         <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>52</v>
@@ -1668,7 +1686,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>54</v>
@@ -1683,14 +1701,14 @@
         <v>59</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1699,25 +1717,30 @@
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>176</v>
+      <c r="E13" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>54</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K13" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1734,7 +1757,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>54</v>
@@ -1749,13 +1772,13 @@
         <v>59</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1772,10 +1795,10 @@
         <v>54</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>128</v>
@@ -1789,11 +1812,11 @@
       <c r="K15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1810,10 +1833,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>128</v>
@@ -1827,7 +1850,7 @@
       <c r="K16" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1849,7 +1872,7 @@
         <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>81</v>
@@ -1861,12 +1884,12 @@
         <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1875,7 +1898,7 @@
         <v>139</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
@@ -1884,10 +1907,10 @@
         <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>54</v>
@@ -1902,7 +1925,7 @@
         <v>59</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -1919,10 +1942,10 @@
         <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>54</v>
@@ -1931,22 +1954,22 @@
         <v>79</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
@@ -1954,10 +1977,10 @@
         <v>55</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>62</v>
@@ -1972,15 +1995,15 @@
         <v>59</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>97</v>
@@ -1992,13 +2015,13 @@
         <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>79</v>
@@ -2010,12 +2033,12 @@
         <v>59</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>97</v>
@@ -2030,10 +2053,10 @@
         <v>54</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>79</v>
@@ -2045,15 +2068,15 @@
         <v>59</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>52</v>
@@ -2065,7 +2088,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>54</v>
@@ -2080,7 +2103,7 @@
         <v>59</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2115,7 +2138,7 @@
         <v>53</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>110</v>
@@ -2135,7 +2158,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>54</v>
@@ -2153,7 +2176,7 @@
         <v>53</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>89</v>
@@ -2161,10 +2184,10 @@
     </row>
     <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>52</v>
@@ -2176,7 +2199,7 @@
         <v>54</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>54</v>
@@ -2191,7 +2214,7 @@
         <v>59</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -2208,10 +2231,10 @@
         <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>54</v>
@@ -2226,9 +2249,9 @@
         <v>53</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2246,10 +2269,10 @@
         <v>46</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>54</v>
@@ -2264,15 +2287,15 @@
         <v>53</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>97</v>
@@ -2284,12 +2307,12 @@
         <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>176</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -2300,6 +2323,9 @@
       </c>
       <c r="J29" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -2316,10 +2342,10 @@
         <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>176</v>
+        <v>176</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>54</v>
@@ -2333,7 +2359,10 @@
       <c r="J30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="K30" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2350,11 +2379,11 @@
       <c r="D31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>176</v>
+      <c r="E31" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>54</v>
@@ -2369,9 +2398,9 @@
         <v>53</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2389,10 +2418,10 @@
         <v>46</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>54</v>
@@ -2407,9 +2436,9 @@
         <v>53</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="L32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2427,16 +2456,16 @@
         <v>46</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>53</v>
@@ -2447,7 +2476,7 @@
       <c r="K33" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="3" t="s">
         <v>100</v>
       </c>
       <c r="M33" s="6"/>
@@ -2503,7 +2532,7 @@
         <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>54</v>
@@ -2518,7 +2547,7 @@
         <v>59</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>55</v>
@@ -2538,25 +2567,25 @@
         <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>55</v>
@@ -2576,10 +2605,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>54</v>
@@ -2594,7 +2623,7 @@
         <v>53</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>55</v>
@@ -2617,7 +2646,7 @@
         <v>54</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>54</v>
@@ -2632,7 +2661,7 @@
         <v>53</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>55</v>
@@ -2655,7 +2684,7 @@
         <v>54</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>54</v>
@@ -2670,7 +2699,7 @@
         <v>53</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>55</v>
@@ -2693,7 +2722,7 @@
         <v>54</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>54</v>
@@ -2708,7 +2737,7 @@
         <v>53</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>55</v>
@@ -2728,7 +2757,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>54</v>
@@ -2746,7 +2775,7 @@
         <v>53</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>55</v>
@@ -2766,10 +2795,10 @@
         <v>46</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>54</v>
@@ -2784,7 +2813,7 @@
         <v>53</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>55</v>
@@ -2808,7 +2837,7 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>54</v>
@@ -2820,7 +2849,7 @@
         <v>53</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>55</v>
@@ -2864,7 +2893,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>54</v>
@@ -2879,7 +2908,7 @@
         <v>53</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>55</v>
@@ -2902,7 +2931,7 @@
         <v>54</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>54</v>
@@ -2917,7 +2946,7 @@
         <v>53</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>55</v>
@@ -2937,10 +2966,10 @@
         <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>54</v>
@@ -2955,7 +2984,7 @@
         <v>53</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>55</v>
@@ -2978,7 +3007,7 @@
         <v>54</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>54</v>
@@ -2993,7 +3022,7 @@
         <v>53</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>55</v>
@@ -3019,7 +3048,7 @@
         <v>54</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>78</v>
@@ -3031,7 +3060,7 @@
         <v>53</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>55</v>
@@ -3054,7 +3083,7 @@
         <v>54</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>54</v>
@@ -3069,7 +3098,7 @@
         <v>53</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>55</v>
@@ -3089,10 +3118,10 @@
         <v>55</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>54</v>
@@ -3107,7 +3136,7 @@
         <v>59</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>55</v>
@@ -3130,7 +3159,7 @@
         <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>54</v>
@@ -3145,7 +3174,7 @@
         <v>53</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>55</v>
@@ -3171,7 +3200,7 @@
         <v>54</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>78</v>
@@ -3200,10 +3229,10 @@
         <v>55</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>54</v>
@@ -3218,7 +3247,7 @@
         <v>59</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>55</v>
@@ -3244,7 +3273,7 @@
         <v>54</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>78</v>
@@ -3256,7 +3285,7 @@
         <v>53</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>55</v>
@@ -3279,7 +3308,7 @@
         <v>54</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>54</v>
@@ -3294,7 +3323,7 @@
         <v>53</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>55</v>
@@ -3355,7 +3384,7 @@
         <v>54</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>79</v>
@@ -3367,7 +3396,7 @@
         <v>53</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>55</v>
@@ -3393,7 +3422,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>79</v>
@@ -3405,7 +3434,7 @@
         <v>53</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>55</v>
@@ -3431,7 +3460,7 @@
         <v>54</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>79</v>
@@ -3443,7 +3472,7 @@
         <v>53</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>55</v>
@@ -3469,7 +3498,7 @@
         <v>54</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>79</v>
@@ -3481,7 +3510,7 @@
         <v>53</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>55</v>
@@ -3524,7 +3553,7 @@
         <v>54</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>54</v>
@@ -3539,7 +3568,7 @@
         <v>53</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>55</v>
@@ -3550,7 +3579,7 @@
     </row>
     <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>87</v>
@@ -3568,7 +3597,7 @@
         <v>54</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>79</v>
@@ -3580,7 +3609,7 @@
         <v>59</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>53</v>
@@ -3606,7 +3635,7 @@
         <v>54</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>78</v>
@@ -3639,10 +3668,10 @@
         <v>54</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>114</v>
@@ -3654,7 +3683,7 @@
         <v>53</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>113</v>
@@ -3674,10 +3703,10 @@
         <v>55</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>54</v>
@@ -3694,6 +3723,36 @@
       <c r="K67" s="3"/>
       <c r="L67" s="1" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -3777,7 +3836,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>137</v>
@@ -3799,16 +3858,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3850,19 +3909,6 @@
         <v>126</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="H86" s="1" t="s">
         <v>137</v>
       </c>
     </row>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B529EF6-3181-4653-A1EA-69F2952E3B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43828BFD-4468-4CC6-9B9F-2C7884D71C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="212">
   <si>
     <t>title</t>
   </si>
@@ -878,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -938,9 +938,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -950,10 +947,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1246,28 +1243,28 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.26953125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.26953125" style="1"/>
-    <col min="11" max="11" width="35.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.26953125" style="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1338,7 +1335,7 @@
       </c>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -1374,7 +1371,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1412,7 +1409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1488,7 +1485,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>150</v>
       </c>
@@ -1523,7 +1520,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -1557,8 +1554,11 @@
       <c r="K8" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="F9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>174</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1592,8 +1592,11 @@
       <c r="K9" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="L9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>204</v>
       </c>
@@ -1733,14 +1736,16 @@
       <c r="J13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="L13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1854,7 +1859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +1898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>139</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -1963,7 +1968,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>167</v>
       </c>
@@ -2001,7 +2006,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>162</v>
       </c>
@@ -2036,7 +2041,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>163</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>156</v>
       </c>
@@ -2106,7 +2111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -2140,11 +2145,11 @@
       <c r="K24" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2178,11 +2183,11 @@
       <c r="K25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>173</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2255,7 +2260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>161</v>
       </c>
@@ -2324,11 +2329,11 @@
       <c r="J29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2359,14 +2364,14 @@
       <c r="J30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="23" t="s">
         <v>210</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -2481,7 +2486,7 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -2591,7 +2596,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2625,11 +2630,11 @@
       <c r="K37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L37" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2663,11 +2668,11 @@
       <c r="K38" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L38" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2701,11 +2706,11 @@
       <c r="K39" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L39" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2739,11 +2744,11 @@
       <c r="K40" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="L40" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2777,11 +2782,11 @@
       <c r="K41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -2815,11 +2820,11 @@
       <c r="K42" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="L42" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>18</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -2876,7 +2881,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>29</v>
       </c>
@@ -2910,11 +2915,11 @@
       <c r="K45" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -2948,11 +2953,11 @@
       <c r="K46" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L46" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -2986,11 +2991,11 @@
       <c r="K47" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L47" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3024,11 +3029,11 @@
       <c r="K48" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L48" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -3062,11 +3067,11 @@
       <c r="K49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L49" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3100,11 +3105,11 @@
       <c r="K50" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="L50" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -3138,11 +3143,11 @@
       <c r="K51" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -3176,11 +3181,11 @@
       <c r="K52" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L52" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>23</v>
       </c>
@@ -3215,7 +3220,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -3249,11 +3254,11 @@
       <c r="K54" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -3287,11 +3292,11 @@
       <c r="K55" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L55" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3325,11 +3330,11 @@
       <c r="K56" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -3360,11 +3365,11 @@
       <c r="J57" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -3398,11 +3403,11 @@
       <c r="K58" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L58" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
@@ -3436,11 +3441,11 @@
       <c r="K59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L59" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -3471,14 +3476,14 @@
       <c r="J60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="L60" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -3512,11 +3517,11 @@
       <c r="K61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="L61" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>99</v>
       </c>
@@ -3536,7 +3541,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>16</v>
       </c>
@@ -3567,17 +3572,17 @@
       <c r="J63" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="24" t="s">
+      <c r="K63" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>181</v>
       </c>
@@ -3608,14 +3613,14 @@
       <c r="J64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="24" t="s">
+      <c r="K64" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L64" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -3647,11 +3652,11 @@
         <v>53</v>
       </c>
       <c r="K65" s="3"/>
-      <c r="L65" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="L65" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3669,7 @@
       <c r="D66" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -3682,14 +3687,14 @@
       <c r="J66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K66" s="25" t="s">
+      <c r="K66" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -3702,10 +3707,10 @@
       <c r="D67" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F67" s="21" t="s">
+      <c r="E67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="14" t="s">
@@ -3721,11 +3726,11 @@
         <v>53</v>
       </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>206</v>
       </c>
@@ -3738,10 +3743,10 @@
       <c r="D68" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="E68" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -3755,12 +3760,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>144</v>
       </c>
@@ -3779,7 +3784,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>141</v>
       </c>
@@ -3798,12 +3803,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
@@ -3817,7 +3822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>133</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>149</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
@@ -3870,7 +3875,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -3884,7 +3889,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>105</v>
       </c>
@@ -3898,7 +3903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -3912,16 +3917,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>119</v>
       </c>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43828BFD-4468-4CC6-9B9F-2C7884D71C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22A0F45-4F5C-4E26-AFF7-87CC69AB402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="211">
   <si>
     <t>title</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>retest</t>
-  </si>
-  <si>
-    <t>3d galsses icon nneded</t>
   </si>
   <si>
     <t>something wrong with the donwload</t>
@@ -803,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +861,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -878,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -941,9 +950,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -951,6 +957,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1243,10 +1255,10 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,8 +1339,8 @@
       <c r="I2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>59</v>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>179</v>
@@ -1363,15 +1375,15 @@
       <c r="I3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>59</v>
+      <c r="J3" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>179</v>
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1399,8 +1411,8 @@
       <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>183</v>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>179</v>
@@ -1513,8 +1525,8 @@
       <c r="I7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>59</v>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>179</v>
@@ -1548,8 +1560,8 @@
       <c r="I8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>59</v>
+      <c r="J8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>179</v>
@@ -1577,8 +1589,8 @@
       <c r="F9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>174</v>
+      <c r="G9" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>79</v>
@@ -1586,11 +1598,11 @@
       <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>187</v>
+      <c r="J9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>55</v>
@@ -1654,7 +1666,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>79</v>
@@ -1662,11 +1674,11 @@
       <c r="I11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>187</v>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>55</v>
@@ -1700,8 +1712,8 @@
       <c r="I12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>59</v>
+      <c r="J12" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>179</v>
@@ -1709,7 +1721,7 @@
     </row>
     <row r="13" spans="1:14" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>98</v>
@@ -1733,11 +1745,11 @@
       <c r="I13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>211</v>
+      <c r="J13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>55</v>
@@ -1773,8 +1785,8 @@
       <c r="I14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>59</v>
+      <c r="J14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>179</v>
@@ -1800,10 +1812,10 @@
         <v>54</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>128</v>
@@ -1838,10 +1850,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>128</v>
@@ -1877,7 +1889,7 @@
         <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>81</v>
@@ -1888,8 +1900,8 @@
       <c r="J17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>187</v>
+      <c r="K17" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>55</v>
@@ -1926,8 +1938,8 @@
       <c r="I18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>59</v>
+      <c r="J18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>179</v>
@@ -1959,10 +1971,10 @@
         <v>79</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>195</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>179</v>
@@ -1996,8 +2008,8 @@
       <c r="I20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>59</v>
+      <c r="J20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>169</v>
@@ -2026,7 +2038,7 @@
         <v>182</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>79</v>
@@ -2034,11 +2046,11 @@
       <c r="I21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>187</v>
+      <c r="J21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2061,7 +2073,7 @@
         <v>182</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>79</v>
@@ -2069,11 +2081,11 @@
       <c r="I22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>187</v>
+      <c r="J22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2104,8 +2116,8 @@
       <c r="I23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>59</v>
+      <c r="J23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>179</v>
@@ -2181,7 +2193,7 @@
         <v>53</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>89</v>
@@ -2215,11 +2227,11 @@
       <c r="I26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>59</v>
+      <c r="J26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2326,11 +2338,11 @@
       <c r="I29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>209</v>
+      <c r="J29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2364,8 +2376,8 @@
       <c r="J30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="23" t="s">
-        <v>210</v>
+      <c r="K30" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>55</v>
@@ -2467,16 +2479,16 @@
         <v>176</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>59</v>
+      <c r="J33" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>101</v>
@@ -2548,8 +2560,8 @@
       <c r="I35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>59</v>
+      <c r="J35" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>179</v>
@@ -2572,10 +2584,10 @@
         <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>54</v>
@@ -2589,8 +2601,8 @@
       <c r="J36" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>187</v>
+      <c r="K36" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>55</v>
@@ -2613,7 +2625,7 @@
         <v>176</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>54</v>
@@ -2628,7 +2640,7 @@
         <v>53</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>55</v>
@@ -2762,7 +2774,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>54</v>
@@ -2842,7 +2854,7 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>54</v>
@@ -2853,8 +2865,8 @@
       <c r="J43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>187</v>
+      <c r="K43" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>55</v>
@@ -2913,7 +2925,7 @@
         <v>53</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>55</v>
@@ -3027,7 +3039,7 @@
         <v>53</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>55</v>
@@ -3064,8 +3076,8 @@
       <c r="J49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>187</v>
+      <c r="K49" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>55</v>
@@ -3137,8 +3149,8 @@
       <c r="I51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>59</v>
+      <c r="J51" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>179</v>
@@ -3205,7 +3217,7 @@
         <v>54</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>78</v>
@@ -3248,8 +3260,8 @@
       <c r="I54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J54" s="7" t="s">
-        <v>59</v>
+      <c r="J54" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>179</v>
@@ -3289,8 +3301,8 @@
       <c r="J55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>187</v>
+      <c r="K55" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>55</v>
@@ -3362,10 +3374,10 @@
       <c r="I57" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L57" s="25" t="s">
+      <c r="J57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" s="24" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3389,7 +3401,7 @@
         <v>54</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>79</v>
@@ -3401,7 +3413,7 @@
         <v>53</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>55</v>
@@ -3427,7 +3439,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>79</v>
@@ -3439,7 +3451,7 @@
         <v>53</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>55</v>
@@ -3477,7 +3489,7 @@
         <v>53</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>55</v>
@@ -3503,7 +3515,7 @@
         <v>54</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>79</v>
@@ -3515,7 +3527,7 @@
         <v>53</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>55</v>
@@ -3572,8 +3584,8 @@
       <c r="J63" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="23" t="s">
-        <v>197</v>
+      <c r="K63" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>55</v>
@@ -3602,7 +3614,7 @@
         <v>54</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>79</v>
@@ -3610,11 +3622,11 @@
       <c r="I64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J64" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>193</v>
+      <c r="J64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>55</v>
@@ -3688,7 +3700,7 @@
         <v>53</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>113</v>
@@ -3726,16 +3738,16 @@
         <v>53</v>
       </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="25" t="s">
+      <c r="L67" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>52</v>
@@ -3754,10 +3766,10 @@
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22A0F45-4F5C-4E26-AFF7-87CC69AB402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E0AFDC-7456-41EF-B2D7-B733F18F289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="215">
   <si>
     <t>title</t>
   </si>
@@ -561,9 +561,6 @@
     <t>downloading</t>
   </si>
   <si>
-    <t>missing!!!</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
   </si>
   <si>
     <t>something wrong with the donwload</t>
-  </si>
-  <si>
-    <t>long</t>
   </si>
   <si>
     <t>rom</t>
@@ -644,9 +638,6 @@
     </r>
   </si>
   <si>
-    <t>rom unsccesful</t>
-  </si>
-  <si>
     <t>qr too</t>
   </si>
   <si>
@@ -698,9 +689,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>exits</t>
   </si>
   <si>
@@ -708,6 +696,30 @@
   </si>
   <si>
     <t>gamebrew dowload problem?</t>
+  </si>
+  <si>
+    <t>Build.zip</t>
+  </si>
+  <si>
+    <t>Datafile (exe)</t>
+  </si>
+  <si>
+    <t>freeware games not saved / VM in Udb</t>
+  </si>
+  <si>
+    <t>starting</t>
+  </si>
+  <si>
+    <t>gb dl err</t>
+  </si>
+  <si>
+    <t>törölték, 3ds-en megvan</t>
+  </si>
+  <si>
+    <t>new version, corrected</t>
+  </si>
+  <si>
+    <t>sikertelen, de elérhető</t>
   </si>
 </sst>
 </file>
@@ -1255,28 +1267,28 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="1"/>
+    <col min="11" max="11" width="35.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>54</v>
@@ -1343,11 +1355,13 @@
         <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -1361,10 +1375,10 @@
         <v>55</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>54</v>
@@ -1379,11 +1393,13 @@
         <v>53</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1397,10 +1413,10 @@
         <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>54</v>
@@ -1415,13 +1431,13 @@
         <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1435,10 +1451,10 @@
         <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>54</v>
@@ -1453,13 +1469,13 @@
         <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +1492,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>54</v>
@@ -1491,13 +1507,13 @@
         <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>150</v>
       </c>
@@ -1514,7 +1530,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>54</v>
@@ -1529,10 +1545,13 @@
         <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -1549,7 +1568,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>54</v>
@@ -1564,13 +1583,13 @@
         <v>53</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -1590,7 +1609,7 @@
         <v>54</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>79</v>
@@ -1602,13 +1621,13 @@
         <v>53</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1625,10 +1644,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>54</v>
@@ -1640,13 +1659,13 @@
         <v>53</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1666,7 +1685,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>79</v>
@@ -1678,13 +1697,13 @@
         <v>53</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
@@ -1701,7 +1720,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>54</v>
@@ -1716,12 +1735,15 @@
         <v>53</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>98</v>
@@ -1733,10 +1755,10 @@
         <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>54</v>
@@ -1749,7 +1771,7 @@
         <v>53</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>55</v>
@@ -1757,7 +1779,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1774,7 +1796,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>54</v>
@@ -1789,13 +1811,13 @@
         <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1812,10 +1834,10 @@
         <v>54</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>128</v>
@@ -1829,11 +1851,11 @@
       <c r="K15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1850,10 +1872,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>128</v>
@@ -1867,11 +1889,11 @@
       <c r="K16" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1888,8 +1910,8 @@
       <c r="F17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>184</v>
+      <c r="G17" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>81</v>
@@ -1901,7 +1923,7 @@
         <v>53</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>55</v>
@@ -1910,8 +1932,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>139</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1924,10 +1946,10 @@
         <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>54</v>
@@ -1942,10 +1964,14 @@
         <v>53</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="N18" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -1959,10 +1985,10 @@
         <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>54</v>
@@ -1971,17 +1997,20 @@
         <v>79</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1994,10 +2023,10 @@
         <v>55</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>213</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>62</v>
@@ -2014,12 +2043,12 @@
       <c r="K20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="L20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2032,13 +2061,13 @@
         <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>79</v>
@@ -2050,11 +2079,14 @@
         <v>53</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2070,10 +2102,10 @@
         <v>54</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>79</v>
@@ -2085,10 +2117,13 @@
         <v>53</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>156</v>
       </c>
@@ -2105,7 +2140,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>54</v>
@@ -2120,10 +2155,13 @@
         <v>53</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -2155,13 +2193,13 @@
         <v>53</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,13 +2231,13 @@
         <v>53</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>173</v>
       </c>
@@ -2216,7 +2254,7 @@
         <v>54</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>54</v>
@@ -2231,10 +2269,16 @@
         <v>53</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2248,10 +2292,10 @@
         <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>54</v>
@@ -2266,13 +2310,13 @@
         <v>53</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -2286,10 +2330,10 @@
         <v>46</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>54</v>
@@ -2304,13 +2348,13 @@
         <v>53</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>161</v>
       </c>
@@ -2324,13 +2368,13 @@
         <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>174</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>79</v>
@@ -2342,10 +2386,13 @@
         <v>53</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2359,7 +2406,7 @@
         <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>174</v>
@@ -2377,13 +2424,13 @@
         <v>53</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -2400,7 +2447,7 @@
         <v>174</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>54</v>
@@ -2415,13 +2462,13 @@
         <v>53</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2435,7 +2482,7 @@
         <v>46</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>174</v>
@@ -2453,14 +2500,14 @@
         <v>53</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2476,13 +2523,13 @@
         <v>174</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>53</v>
@@ -2498,7 +2545,7 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -2528,11 +2575,14 @@
       <c r="K34" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="L34" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="M34" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -2549,7 +2599,7 @@
         <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>54</v>
@@ -2564,13 +2614,13 @@
         <v>53</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -2583,32 +2633,32 @@
       <c r="D36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="L36" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2622,10 +2672,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>54</v>
@@ -2640,13 +2690,13 @@
         <v>53</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2663,7 +2713,7 @@
         <v>54</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>54</v>
@@ -2678,13 +2728,13 @@
         <v>53</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2701,7 +2751,7 @@
         <v>54</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>54</v>
@@ -2716,13 +2766,13 @@
         <v>53</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2739,7 +2789,7 @@
         <v>54</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>54</v>
@@ -2754,13 +2804,13 @@
         <v>53</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2773,8 +2823,8 @@
       <c r="D41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>184</v>
+      <c r="E41" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>54</v>
@@ -2792,13 +2842,13 @@
         <v>53</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -2812,10 +2862,10 @@
         <v>46</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>54</v>
@@ -2830,13 +2880,13 @@
         <v>53</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>18</v>
       </c>
@@ -2849,12 +2899,14 @@
       <c r="D43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="1" t="s">
-        <v>184</v>
+      <c r="E43" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>54</v>
@@ -2866,13 +2918,13 @@
         <v>53</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -2893,7 +2945,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>29</v>
       </c>
@@ -2910,7 +2962,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>54</v>
@@ -2925,13 +2977,13 @@
         <v>53</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -2948,7 +3000,7 @@
         <v>54</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>54</v>
@@ -2963,13 +3015,13 @@
         <v>53</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -2983,10 +3035,10 @@
         <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>54</v>
@@ -3001,13 +3053,13 @@
         <v>53</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3024,7 +3076,7 @@
         <v>54</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>54</v>
@@ -3039,13 +3091,13 @@
         <v>53</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -3064,7 +3116,7 @@
       <c r="F49" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>174</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -3077,13 +3129,13 @@
         <v>53</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3100,7 +3152,7 @@
         <v>54</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>54</v>
@@ -3115,13 +3167,13 @@
         <v>53</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -3138,7 +3190,7 @@
         <v>174</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>54</v>
@@ -3153,13 +3205,13 @@
         <v>53</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -3176,7 +3228,7 @@
         <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>54</v>
@@ -3191,13 +3243,13 @@
         <v>53</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>23</v>
       </c>
@@ -3217,7 +3269,7 @@
         <v>54</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>78</v>
@@ -3231,8 +3283,11 @@
       <c r="K53" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L53" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -3249,7 +3304,7 @@
         <v>174</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>54</v>
@@ -3264,13 +3319,13 @@
         <v>53</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -3289,7 +3344,7 @@
       <c r="F55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="3" t="s">
         <v>174</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -3302,13 +3357,13 @@
         <v>53</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3325,7 +3380,7 @@
         <v>54</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>54</v>
@@ -3340,13 +3395,13 @@
         <v>53</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -3377,11 +3432,14 @@
       <c r="J57" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="K57" s="25" t="s">
+        <v>184</v>
+      </c>
       <c r="L57" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -3400,8 +3458,8 @@
       <c r="F58" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>184</v>
+      <c r="G58" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>79</v>
@@ -3412,14 +3470,14 @@
       <c r="J58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>190</v>
+      <c r="K58" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
@@ -3438,8 +3496,8 @@
       <c r="F59" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>184</v>
+      <c r="G59" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>79</v>
@@ -3450,14 +3508,14 @@
       <c r="J59" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>190</v>
+      <c r="K59" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -3477,7 +3535,7 @@
         <v>54</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>79</v>
@@ -3489,13 +3547,13 @@
         <v>53</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -3514,8 +3572,8 @@
       <c r="F61" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>184</v>
+      <c r="G61" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>79</v>
@@ -3526,14 +3584,14 @@
       <c r="J61" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>190</v>
+      <c r="K61" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>99</v>
       </c>
@@ -3553,7 +3611,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +3643,7 @@
         <v>53</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>55</v>
@@ -3594,9 +3652,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>87</v>
@@ -3613,8 +3671,8 @@
       <c r="F64" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="13" t="s">
-        <v>189</v>
+      <c r="G64" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>79</v>
@@ -3626,13 +3684,13 @@
         <v>53</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -3652,7 +3710,7 @@
         <v>54</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>78</v>
@@ -3668,7 +3726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3685,10 +3743,10 @@
         <v>54</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>114</v>
@@ -3700,13 +3758,13 @@
         <v>53</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -3719,11 +3777,11 @@
       <c r="D67" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>176</v>
+      <c r="E67" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>54</v>
@@ -3742,12 +3800,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>52</v>
@@ -3762,22 +3820,28 @@
         <v>54</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="12" t="s">
-        <v>207</v>
+      <c r="I68" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>144</v>
       </c>
@@ -3796,7 +3860,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>141</v>
       </c>
@@ -3815,12 +3879,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
@@ -3834,7 +3898,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>133</v>
       </c>
@@ -3851,7 +3915,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>149</v>
       </c>
@@ -3859,7 +3923,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -3873,7 +3937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
@@ -3886,8 +3950,11 @@
       <c r="K82" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L82" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -3901,7 +3968,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A84" s="9" t="s">
         <v>105</v>
       </c>
@@ -3915,7 +3982,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -3929,16 +3996,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>119</v>
       </c>
@@ -3953,7 +4020,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J46" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M67">
     <sortCondition ref="A2:A67"/>
   </sortState>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E0AFDC-7456-41EF-B2D7-B733F18F289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0BFD8-DAEC-467A-BADB-39AF2E8C02A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="271">
   <si>
     <t>title</t>
   </si>
@@ -721,12 +721,180 @@
   <si>
     <t>sikertelen, de elérhető</t>
   </si>
+  <si>
+    <t>Yet Another Flappy Bird. With Vertical Orientation</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/374</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/372</t>
+  </si>
+  <si>
+    <t>Terri-Fried</t>
+  </si>
+  <si>
+    <t>Wordle 3DS ASCII Game</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/361</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/358</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/357</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>CIA Installer</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/355</t>
+  </si>
+  <si>
+    <t>3dXMMP</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/348</t>
+  </si>
+  <si>
+    <t>3DSoundboard</t>
+  </si>
+  <si>
+    <t>Slime Of Schrödinger</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/347</t>
+  </si>
+  <si>
+    <t>SuDokuL </t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/345</t>
+  </si>
+  <si>
+    <t>Cube Adventures</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/332</t>
+  </si>
+  <si>
+    <t>újranézni</t>
+  </si>
+  <si>
+    <t>Multi-PokemonFramework+</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/326</t>
+  </si>
+  <si>
+    <t>Bandolero 3Ds</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/324</t>
+  </si>
+  <si>
+    <t>Level256 Network Installer</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/319</t>
+  </si>
+  <si>
+    <t>3DSx Play Coin Setter Mod</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/318</t>
+  </si>
+  <si>
+    <t>Dead Pixel Checker</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/317</t>
+  </si>
+  <si>
+    <t>Anarch - Suckless FPS game</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/316</t>
+  </si>
+  <si>
+    <t>Touch Keys</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/312</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/307</t>
+  </si>
+  <si>
+    <t>budgieSSH (An SSH client for the 3DS)</t>
+  </si>
+  <si>
+    <t>Terminal interface clicker game</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/306</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/304</t>
+  </si>
+  <si>
+    <t>Donut.c </t>
+  </si>
+  <si>
+    <t>RollTheDice-3DS</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/293</t>
+  </si>
+  <si>
+    <t>Space Invaders Clone</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/289</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/288</t>
+  </si>
+  <si>
+    <t>Notebook3DS</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/287</t>
+  </si>
+  <si>
+    <t>3DS Collab Doodle App</t>
+  </si>
+  <si>
+    <t>3DiceRoll/3DiceRoller</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/274</t>
+  </si>
+  <si>
+    <t>1.1.0 !!!!</t>
+  </si>
+  <si>
+    <t>3DS Button Tester</t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/273</t>
+  </si>
+  <si>
+    <t>BlargSPC 3ds </t>
+  </si>
+  <si>
+    <t>https://github.com/Universal-Team/db/issues/268</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +978,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="13">
@@ -899,7 +1074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -977,6 +1152,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1264,31 +1440,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
+      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="1"/>
-    <col min="11" max="11" width="35.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1361,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -1399,7 +1575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1437,7 +1613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1475,7 +1651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1513,7 +1689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>150</v>
       </c>
@@ -1551,7 +1727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -1589,7 +1765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -1627,7 +1803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1665,7 +1841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1703,7 +1879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
@@ -1741,7 +1917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>200</v>
       </c>
@@ -1779,7 +1955,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1817,7 +1993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1855,7 +2031,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1893,7 +2069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +2108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>139</v>
       </c>
@@ -1971,7 +2147,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -2009,7 +2185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>167</v>
       </c>
@@ -2047,7 +2223,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>162</v>
       </c>
@@ -2085,7 +2261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>163</v>
       </c>
@@ -2123,7 +2299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>156</v>
       </c>
@@ -2161,7 +2337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -2199,7 +2375,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,7 +2413,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>173</v>
       </c>
@@ -2278,7 +2454,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2316,7 +2492,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -2354,7 +2530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>161</v>
       </c>
@@ -2392,7 +2568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2430,7 +2606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -2468,7 +2644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2506,7 +2682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2545,7 +2721,7 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -2582,7 +2758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -2620,7 +2796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +2834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2696,7 +2872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2734,7 +2910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2772,7 +2948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2810,7 +2986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2848,7 +3024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -2886,7 +3062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>18</v>
       </c>
@@ -2924,7 +3100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -2945,7 +3121,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>29</v>
       </c>
@@ -2983,7 +3159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -3021,7 +3197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -3059,7 +3235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3097,7 +3273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -3135,7 +3311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +3349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -3211,7 +3387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -3249,7 +3425,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>23</v>
       </c>
@@ -3287,7 +3463,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -3325,7 +3501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -3363,7 +3539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3401,7 +3577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -3439,7 +3615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -3477,7 +3653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
@@ -3515,7 +3691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -3553,7 +3729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -3591,7 +3767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>99</v>
       </c>
@@ -3611,7 +3787,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>16</v>
       </c>
@@ -3652,7 +3828,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>180</v>
       </c>
@@ -3690,7 +3866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -3726,7 +3902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3764,7 +3940,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -3800,7 +3976,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>202</v>
       </c>
@@ -3836,12 +4012,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>144</v>
       </c>
@@ -3859,8 +4035,11 @@
       <c r="K72" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N72" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>141</v>
       </c>
@@ -3878,13 +4057,16 @@
       <c r="K73" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
@@ -3898,7 +4080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>133</v>
       </c>
@@ -3915,7 +4097,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>149</v>
       </c>
@@ -3923,7 +4105,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -3937,7 +4119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
@@ -3954,7 +4136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -3968,7 +4150,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>105</v>
       </c>
@@ -3982,7 +4164,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -3996,16 +4178,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>119</v>
       </c>
@@ -4017,6 +4199,225 @@
       </c>
       <c r="H89" s="1" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4026,8 +4427,9 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="M34" r:id="rId1" xr:uid="{A3E5B044-85D1-468A-A613-8725F60707A8}"/>
+    <hyperlink ref="A96" r:id="rId2" display="https://github.com/Universal-Team/db/issues/357" xr:uid="{70329A6B-E196-48D4-8022-8F632C2E1858}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/releases.xlsx
+++ b/releases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0BFD8-DAEC-467A-BADB-39AF2E8C02A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E176B52D-C1AD-40FD-B8C6-1F29F4EEA7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11268" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="274">
   <si>
     <t>title</t>
   </si>
@@ -888,6 +889,15 @@
   </si>
   <si>
     <t>https://github.com/Universal-Team/db/issues/268</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>konvertálni</t>
+  </si>
+  <si>
+    <t>nincs, készíteni</t>
   </si>
 </sst>
 </file>
@@ -1443,28 +1453,28 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="1"/>
+    <col min="11" max="11" width="35.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1537,7 +1547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -1575,7 +1585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>150</v>
       </c>
@@ -1727,7 +1737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -1765,7 +1775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -1803,7 +1813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
@@ -1917,7 +1927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>200</v>
       </c>
@@ -1955,7 +1965,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2069,7 +2079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>139</v>
       </c>
@@ -2147,7 +2157,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>167</v>
       </c>
@@ -2223,7 +2233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>162</v>
       </c>
@@ -2261,7 +2271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>163</v>
       </c>
@@ -2299,7 +2309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>156</v>
       </c>
@@ -2337,7 +2347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -2375,7 +2385,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>173</v>
       </c>
@@ -2454,7 +2464,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2492,7 +2502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -2530,7 +2540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>161</v>
       </c>
@@ -2568,7 +2578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2606,7 +2616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2682,7 +2692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2721,7 +2731,7 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -2796,7 +2806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -2834,7 +2844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2872,7 +2882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2910,7 +2920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2948,7 +2958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2986,7 +2996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3024,7 +3034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>18</v>
       </c>
@@ -3100,7 +3110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -3121,7 +3131,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>29</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -3197,7 +3207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -3235,7 +3245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3349,7 +3359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -3387,7 +3397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -3425,7 +3435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>23</v>
       </c>
@@ -3463,7 +3473,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -3501,7 +3511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -3539,7 +3549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -3615,7 +3625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -3653,7 +3663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
@@ -3691,7 +3701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -3767,7 +3777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>99</v>
       </c>
@@ -3787,7 +3797,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>16</v>
       </c>
@@ -3828,7 +3838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>180</v>
       </c>
@@ -3866,7 +3876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -3902,7 +3912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3940,7 +3950,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>202</v>
       </c>
@@ -4012,12 +4022,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>144</v>
       </c>
@@ -4039,7 +4049,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>141</v>
       </c>
@@ -4061,12 +4071,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
@@ -4080,7 +4090,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>133</v>
       </c>
@@ -4097,7 +4107,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>149</v>
       </c>
@@ -4105,7 +4115,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
@@ -4136,7 +4146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -4150,7 +4160,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A84" s="9" t="s">
         <v>105</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -4178,16 +4188,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>119</v>
       </c>
@@ -4201,15 +4211,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>218</v>
       </c>
@@ -4217,15 +4233,21 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I94" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>223</v>
       </c>
@@ -4233,7 +4255,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
@@ -4241,7 +4263,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>226</v>
       </c>
@@ -4249,7 +4271,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>228</v>
       </c>
@@ -4257,7 +4279,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>229</v>
       </c>
@@ -4265,7 +4287,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>231</v>
       </c>
@@ -4273,7 +4295,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A101" s="27" t="s">
         <v>233</v>
       </c>
@@ -4281,7 +4303,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A102" s="27" t="s">
         <v>236</v>
       </c>
@@ -4289,7 +4311,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A103" s="27" t="s">
         <v>238</v>
       </c>
@@ -4297,7 +4319,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A104" s="27" t="s">
         <v>240</v>
       </c>
@@ -4305,7 +4327,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A105" s="27" t="s">
         <v>242</v>
       </c>
@@ -4313,7 +4335,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A106" s="27" t="s">
         <v>244</v>
       </c>
@@ -4321,7 +4343,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A107" s="27" t="s">
         <v>246</v>
       </c>
@@ -4329,7 +4351,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A108" s="27" t="s">
         <v>248</v>
       </c>
@@ -4337,7 +4359,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A109" s="27" t="s">
         <v>251</v>
       </c>
@@ -4345,7 +4367,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A110" s="27" t="s">
         <v>252</v>
       </c>
@@ -4353,7 +4375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A111" s="27" t="s">
         <v>255</v>
       </c>
@@ -4361,7 +4383,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A112" s="27" t="s">
         <v>256</v>
       </c>
@@ -4369,7 +4391,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A113" s="27" t="s">
         <v>258</v>
       </c>
@@ -4377,7 +4399,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A114" s="27" t="s">
         <v>261</v>
       </c>
@@ -4385,7 +4407,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A115" s="27" t="s">
         <v>263</v>
       </c>
@@ -4393,7 +4415,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A116" s="27" t="s">
         <v>264</v>
       </c>
@@ -4404,7 +4426,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A117" s="27" t="s">
         <v>267</v>
       </c>
@@ -4412,7 +4434,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A118" s="27" t="s">
         <v>269</v>
       </c>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E176B52D-C1AD-40FD-B8C6-1F29F4EEA7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E620F85-D51C-4E71-81CF-E1E3B8F22120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11268" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="277">
   <si>
     <t>title</t>
   </si>
@@ -789,9 +789,6 @@
     <t>Multi-PokemonFramework+</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/326</t>
-  </si>
-  <si>
     <t>Bandolero 3Ds</t>
   </si>
   <si>
@@ -894,10 +891,22 @@
     <t>van</t>
   </si>
   <si>
-    <t>konvertálni</t>
-  </si>
-  <si>
     <t>nincs, készíteni</t>
+  </si>
+  <si>
+    <t>itdch.io letölés, egyelőre nem</t>
+  </si>
+  <si>
+    <t>luma.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/machinamentum/CS3DS</t>
+  </si>
+  <si>
+    <t>cspsp</t>
+  </si>
+  <si>
+    <t>updatelve lásd fenn</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1462,10 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4211,6 +4220,17 @@
         <v>138</v>
       </c>
     </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>215</v>
@@ -4218,11 +4238,11 @@
       <c r="C92" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>272</v>
+      <c r="I92" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4232,214 +4252,294 @@
       <c r="C93" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K93" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I94" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>221</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I96" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I97" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I99" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="I100" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A101" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="I101" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A102" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A103" s="27" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A103" s="27" t="s">
+      <c r="C103" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="I103" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A104" s="27" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A104" s="27" t="s">
+      <c r="C104" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A105" s="27" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A105" s="27" t="s">
+      <c r="C105" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A106" s="27" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A106" s="27" t="s">
+      <c r="C106" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C106" s="1" t="s">
+    </row>
+    <row r="107" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A107" s="27" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A107" s="27" t="s">
+      <c r="C107" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A108" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A108" s="27" t="s">
+      <c r="C108" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C108" s="1" t="s">
+    </row>
+    <row r="109" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A109" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A109" s="27" t="s">
+    <row r="110" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A110" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A110" s="27" t="s">
+      <c r="C110" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A111" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A111" s="27" t="s">
+    <row r="112" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A112" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A112" s="27" t="s">
+      <c r="C112" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A113" s="27" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A113" s="27" t="s">
+      <c r="C113" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A114" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A114" s="27" t="s">
+    <row r="115" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A115" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A115" s="27" t="s">
+    </row>
+    <row r="116" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A116" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A116" s="27" t="s">
+      <c r="C116" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+    </row>
+    <row r="117" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A117" s="27" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A117" s="27" t="s">
+      <c r="C117" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C117" s="1" t="s">
+    </row>
+    <row r="118" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A118" s="27" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A118" s="27" t="s">
+      <c r="C118" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E620F85-D51C-4E71-81CF-E1E3B8F22120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB449E83-D5DA-4A6B-9A03-FA76E5253C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="279">
   <si>
     <t>title</t>
   </si>
@@ -907,6 +906,12 @@
   </si>
   <si>
     <t>updatelve lásd fenn</t>
+  </si>
+  <si>
+    <t>ki kell egészíteni a git readme tartalmával</t>
+  </si>
+  <si>
+    <t>ki lett erre cserélve a korábbi release, amit töröltek.</t>
   </si>
 </sst>
 </file>
@@ -1462,28 +1467,28 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J103" sqref="J103"/>
+      <selection pane="bottomRight" activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="1"/>
-    <col min="11" max="11" width="35.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1523,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1708,7 +1713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>150</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1898,7 +1903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>200</v>
       </c>
@@ -1974,7 +1979,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>139</v>
       </c>
@@ -2166,7 +2171,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -2204,7 +2209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>167</v>
       </c>
@@ -2241,8 +2246,11 @@
       <c r="L20" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N20" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>162</v>
       </c>
@@ -2280,7 +2288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>163</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>156</v>
       </c>
@@ -2356,7 +2364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -2394,7 +2402,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>173</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2511,7 +2519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>161</v>
       </c>
@@ -2587,7 +2595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -2663,7 +2671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2701,7 +2709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2740,7 +2748,7 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -2777,7 +2785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -2853,7 +2861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2929,7 +2937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2967,7 +2975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -3005,7 +3013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -3081,7 +3089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>18</v>
       </c>
@@ -3119,7 +3127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -3140,7 +3148,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>29</v>
       </c>
@@ -3178,7 +3186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -3216,7 +3224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3292,7 +3300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -3330,7 +3338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3368,7 +3376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -3406,7 +3414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -3444,7 +3452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>23</v>
       </c>
@@ -3482,7 +3490,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -3558,7 +3566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -3672,7 +3680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
@@ -3710,7 +3718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -3748,7 +3756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -3786,7 +3794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>99</v>
       </c>
@@ -3806,7 +3814,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>16</v>
       </c>
@@ -3847,7 +3855,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>180</v>
       </c>
@@ -3885,7 +3893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -3921,7 +3929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>202</v>
       </c>
@@ -4031,12 +4039,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>144</v>
       </c>
@@ -4058,7 +4066,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>141</v>
       </c>
@@ -4080,12 +4088,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
@@ -4099,7 +4107,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>133</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>149</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -4138,7 +4146,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
@@ -4155,7 +4163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -4169,7 +4177,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>105</v>
       </c>
@@ -4183,7 +4191,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -4197,16 +4205,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>119</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>275</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>215</v>
       </c>
@@ -4245,7 +4253,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>218</v>
       </c>
@@ -4256,7 +4264,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>219</v>
       </c>
@@ -4270,7 +4278,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>223</v>
       </c>
@@ -4284,7 +4292,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>224</v>
       </c>
@@ -4298,7 +4306,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>226</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>229</v>
       </c>
@@ -4329,7 +4337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>228</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>231</v>
       </c>
@@ -4360,7 +4368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
         <v>233</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A102" s="27" t="s">
         <v>236</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A103" s="27" t="s">
         <v>237</v>
       </c>
@@ -4408,47 +4416,71 @@
         <v>270</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A104" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="I104" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A105" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="I105" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A106" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="I106" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A107" s="27" t="s">
         <v>245</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="I107" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A108" s="27" t="s">
         <v>247</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="I108" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A109" s="27" t="s">
         <v>250</v>
       </c>
@@ -4456,7 +4488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A110" s="27" t="s">
         <v>251</v>
       </c>
@@ -4464,15 +4496,18 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A111" s="27" t="s">
         <v>254</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="K111" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A112" s="27" t="s">
         <v>255</v>
       </c>
@@ -4480,7 +4515,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A113" s="27" t="s">
         <v>257</v>
       </c>
@@ -4488,7 +4523,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A114" s="27" t="s">
         <v>260</v>
       </c>
@@ -4496,7 +4531,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A115" s="27" t="s">
         <v>262</v>
       </c>
@@ -4504,7 +4539,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A116" s="27" t="s">
         <v>263</v>
       </c>
@@ -4526,7 +4561,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A117" s="27" t="s">
         <v>266</v>
       </c>
@@ -4534,7 +4569,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A118" s="27" t="s">
         <v>268</v>
       </c>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB449E83-D5DA-4A6B-9A03-FA76E5253C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208A870-FBC0-4EE7-AD01-30FD4D467080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="271">
   <si>
     <t>title</t>
   </si>
@@ -526,9 +526,6 @@
   </si>
   <si>
     <t>Fallout 2 CE</t>
-  </si>
-  <si>
-    <t>https://github.com/MrHuu/dethrace-3ds</t>
   </si>
   <si>
     <t>3 freeware 1 full files</t>
@@ -725,9 +722,6 @@
     <t>Yet Another Flappy Bird. With Vertical Orientation</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/374</t>
-  </si>
-  <si>
     <t>https://github.com/Universal-Team/db/issues/372</t>
   </si>
   <si>
@@ -737,45 +731,24 @@
     <t>Wordle 3DS ASCII Game</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/361</t>
-  </si>
-  <si>
-    <t>https://github.com/Universal-Team/db/issues/358</t>
-  </si>
-  <si>
-    <t>https://github.com/Universal-Team/db/issues/357</t>
-  </si>
-  <si>
     <t>Dice</t>
   </si>
   <si>
     <t>CIA Installer</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/355</t>
-  </si>
-  <si>
     <t>3dXMMP</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/348</t>
-  </si>
-  <si>
     <t>3DSoundboard</t>
   </si>
   <si>
     <t>Slime Of Schrödinger</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/347</t>
-  </si>
-  <si>
     <t>SuDokuL </t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/345</t>
-  </si>
-  <si>
     <t>Cube Adventures</t>
   </si>
   <si>
@@ -912,6 +885,9 @@
   </si>
   <si>
     <t>ki lett erre cserélve a korábbi release, amit töröltek.</t>
+  </si>
+  <si>
+    <t>Dboss148</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1177,6 +1153,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1464,31 +1443,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H110" sqref="H110"/>
+      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" style="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="1"/>
+    <col min="11" max="11" width="35.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1502,13 +1481,13 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>47</v>
@@ -1523,7 +1502,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1540,7 +1519,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>54</v>
@@ -1555,13 +1534,13 @@
         <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -1575,10 +1554,10 @@
         <v>55</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>54</v>
@@ -1593,13 +1572,13 @@
         <v>53</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
@@ -1613,10 +1592,10 @@
         <v>55</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>54</v>
@@ -1631,13 +1610,13 @@
         <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1651,10 +1630,10 @@
         <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>54</v>
@@ -1669,13 +1648,13 @@
         <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1692,7 +1671,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>54</v>
@@ -1707,13 +1686,13 @@
         <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>150</v>
       </c>
@@ -1730,7 +1709,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>54</v>
@@ -1745,13 +1724,13 @@
         <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>158</v>
       </c>
@@ -1768,7 +1747,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>54</v>
@@ -1783,13 +1762,13 @@
         <v>53</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -1809,7 +1788,7 @@
         <v>54</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>79</v>
@@ -1821,13 +1800,13 @@
         <v>53</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1844,10 +1823,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>54</v>
@@ -1859,13 +1838,13 @@
         <v>53</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1885,7 +1864,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>79</v>
@@ -1897,13 +1876,13 @@
         <v>53</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>154</v>
       </c>
@@ -1920,7 +1899,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>54</v>
@@ -1935,15 +1914,15 @@
         <v>53</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>98</v>
@@ -1955,10 +1934,10 @@
         <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>54</v>
@@ -1971,7 +1950,7 @@
         <v>53</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>55</v>
@@ -1979,7 +1958,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1996,7 +1975,7 @@
         <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>54</v>
@@ -2011,13 +1990,13 @@
         <v>53</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2034,10 +2013,10 @@
         <v>54</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>128</v>
@@ -2055,7 +2034,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2072,10 +2051,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>128</v>
@@ -2093,7 +2072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2111,7 +2090,7 @@
         <v>54</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>81</v>
@@ -2123,7 +2102,7 @@
         <v>53</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>55</v>
@@ -2132,7 +2111,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>139</v>
       </c>
@@ -2146,10 +2125,10 @@
         <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>54</v>
@@ -2164,14 +2143,14 @@
         <v>53</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L18" s="16"/>
       <c r="N18" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>140</v>
       </c>
@@ -2185,10 +2164,10 @@
         <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>54</v>
@@ -2197,25 +2176,25 @@
         <v>79</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2223,10 +2202,10 @@
         <v>55</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>62</v>
@@ -2241,16 +2220,16 @@
         <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>162</v>
       </c>
@@ -2264,13 +2243,13 @@
         <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>79</v>
@@ -2282,13 +2261,13 @@
         <v>53</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>163</v>
       </c>
@@ -2305,10 +2284,10 @@
         <v>54</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>79</v>
@@ -2320,13 +2299,13 @@
         <v>53</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>156</v>
       </c>
@@ -2343,7 +2322,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>54</v>
@@ -2358,13 +2337,13 @@
         <v>53</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -2396,13 +2375,13 @@
         <v>53</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,7 +2395,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>54</v>
@@ -2434,15 +2413,15 @@
         <v>53</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L25" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>159</v>
@@ -2457,7 +2436,7 @@
         <v>54</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>54</v>
@@ -2472,16 +2451,16 @@
         <v>53</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -2495,10 +2474,10 @@
         <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>54</v>
@@ -2513,13 +2492,13 @@
         <v>53</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
@@ -2533,10 +2512,10 @@
         <v>46</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>54</v>
@@ -2551,13 +2530,13 @@
         <v>53</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>161</v>
       </c>
@@ -2571,13 +2550,13 @@
         <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>79</v>
@@ -2589,13 +2568,13 @@
         <v>53</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2609,10 +2588,10 @@
         <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>54</v>
@@ -2627,13 +2606,13 @@
         <v>53</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -2647,10 +2626,10 @@
         <v>46</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>54</v>
@@ -2665,13 +2644,13 @@
         <v>53</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2685,10 +2664,10 @@
         <v>46</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>54</v>
@@ -2703,13 +2682,13 @@
         <v>53</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -2723,16 +2702,16 @@
         <v>46</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>53</v>
@@ -2748,7 +2727,7 @@
       </c>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -2785,7 +2764,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -2802,7 +2781,7 @@
         <v>54</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>54</v>
@@ -2817,13 +2796,13 @@
         <v>53</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -2837,10 +2816,10 @@
         <v>46</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>54</v>
@@ -2855,13 +2834,13 @@
         <v>53</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2875,10 +2854,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>54</v>
@@ -2893,13 +2872,13 @@
         <v>53</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2916,7 +2895,7 @@
         <v>54</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>54</v>
@@ -2931,13 +2910,13 @@
         <v>53</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2954,7 +2933,7 @@
         <v>54</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>54</v>
@@ -2969,13 +2948,13 @@
         <v>53</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -2992,7 +2971,7 @@
         <v>54</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>54</v>
@@ -3007,13 +2986,13 @@
         <v>53</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3027,7 +3006,7 @@
         <v>46</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>54</v>
@@ -3045,13 +3024,13 @@
         <v>53</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -3065,10 +3044,10 @@
         <v>46</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>54</v>
@@ -3083,13 +3062,13 @@
         <v>53</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>18</v>
       </c>
@@ -3106,10 +3085,10 @@
         <v>54</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>54</v>
@@ -3121,13 +3100,13 @@
         <v>53</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
@@ -3148,7 +3127,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>29</v>
       </c>
@@ -3165,7 +3144,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>54</v>
@@ -3180,13 +3159,13 @@
         <v>53</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -3203,7 +3182,7 @@
         <v>54</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>54</v>
@@ -3218,13 +3197,13 @@
         <v>53</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -3238,10 +3217,10 @@
         <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>54</v>
@@ -3256,13 +3235,13 @@
         <v>53</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3279,7 +3258,7 @@
         <v>54</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>54</v>
@@ -3294,13 +3273,13 @@
         <v>53</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
@@ -3320,7 +3299,7 @@
         <v>54</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>78</v>
@@ -3332,13 +3311,13 @@
         <v>53</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3355,7 +3334,7 @@
         <v>54</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>54</v>
@@ -3370,13 +3349,13 @@
         <v>53</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -3390,10 +3369,10 @@
         <v>55</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>54</v>
@@ -3408,13 +3387,13 @@
         <v>53</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -3431,7 +3410,7 @@
         <v>54</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>54</v>
@@ -3446,13 +3425,13 @@
         <v>53</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>23</v>
       </c>
@@ -3472,7 +3451,7 @@
         <v>54</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>78</v>
@@ -3487,10 +3466,10 @@
         <v>116</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -3504,10 +3483,10 @@
         <v>55</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>54</v>
@@ -3522,13 +3501,13 @@
         <v>53</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -3548,7 +3527,7 @@
         <v>54</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>78</v>
@@ -3560,13 +3539,13 @@
         <v>53</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3583,7 +3562,7 @@
         <v>54</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>54</v>
@@ -3598,13 +3577,13 @@
         <v>53</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -3636,13 +3615,13 @@
         <v>53</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L57" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -3662,7 +3641,7 @@
         <v>54</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>79</v>
@@ -3674,13 +3653,13 @@
         <v>53</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
@@ -3700,7 +3679,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>79</v>
@@ -3712,13 +3691,13 @@
         <v>53</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -3738,7 +3717,7 @@
         <v>54</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>79</v>
@@ -3750,13 +3729,13 @@
         <v>53</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -3776,7 +3755,7 @@
         <v>54</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>79</v>
@@ -3788,13 +3767,13 @@
         <v>53</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>99</v>
       </c>
@@ -3814,7 +3793,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>16</v>
       </c>
@@ -3831,7 +3810,7 @@
         <v>54</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>54</v>
@@ -3846,7 +3825,7 @@
         <v>53</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>55</v>
@@ -3855,9 +3834,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>87</v>
@@ -3875,7 +3854,7 @@
         <v>54</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>79</v>
@@ -3887,13 +3866,13 @@
         <v>53</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
@@ -3913,7 +3892,7 @@
         <v>54</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>78</v>
@@ -3929,7 +3908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3946,10 +3925,10 @@
         <v>54</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>114</v>
@@ -3961,13 +3940,13 @@
         <v>53</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -3981,10 +3960,10 @@
         <v>55</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>54</v>
@@ -4003,13 +3982,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="C68" s="3" t="s">
         <v>52</v>
       </c>
@@ -4023,7 +4002,7 @@
         <v>54</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
@@ -4036,545 +4015,592 @@
         <v>53</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L69" s="16"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L70" s="16"/>
+    </row>
+    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L71" s="16"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A78" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A79" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A80" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A81" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A82" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A83" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A84" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A85" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C86" s="28"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C87" s="28"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C88" s="28"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C89" s="28"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C90" s="28"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C91" s="28"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N92" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="N93" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10" t="s">
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+    </row>
+    <row r="95" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10" t="s">
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="101" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K101" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+    <row r="106" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A106" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H90" s="1" t="s">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="K115" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A116" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I104" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C105" s="3" t="s">
+    </row>
+    <row r="117" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A117" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="I105" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="C117" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="3" t="s">
+    </row>
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A118" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="I106" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="K118" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A119" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="27" t="s">
+      <c r="C119" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C108" s="1" t="s">
+    </row>
+    <row r="120" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A120" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="27" t="s">
+      <c r="C120" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A121" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C110" s="1" t="s">
+    </row>
+    <row r="122" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A122" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="27" t="s">
+    <row r="123" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A123" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="27" t="s">
+      <c r="C123" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+    </row>
+    <row r="124" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A124" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="27" t="s">
+    <row r="125" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A125" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4584,7 +4610,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="M34" r:id="rId1" xr:uid="{A3E5B044-85D1-468A-A613-8725F60707A8}"/>
-    <hyperlink ref="A96" r:id="rId2" display="https://github.com/Universal-Team/db/issues/357" xr:uid="{70329A6B-E196-48D4-8022-8F632C2E1858}"/>
+    <hyperlink ref="A73" r:id="rId2" display="https://github.com/Universal-Team/db/issues/357" xr:uid="{70329A6B-E196-48D4-8022-8F632C2E1858}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208A870-FBC0-4EE7-AD01-30FD4D467080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080C190F-A197-4FD3-AA4F-ECAE515426DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="264">
   <si>
     <t>title</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>devilutionX (Diablo1) Data files</t>
-  </si>
-  <si>
-    <t>OpenTitus data files (E)</t>
   </si>
   <si>
     <t>NJam 3DS</t>
@@ -453,9 +450,6 @@
     <t>recompile?</t>
   </si>
   <si>
-    <t>Donut</t>
-  </si>
-  <si>
     <t>DosBox</t>
   </si>
   <si>
@@ -487,9 +481,6 @@
   </si>
   <si>
     <t>Battery Monitor 3D</t>
-  </si>
-  <si>
-    <t>KoffeeJava</t>
   </si>
   <si>
     <t>TheEpicFace007</t>
@@ -650,12 +641,6 @@
     <t>extracts</t>
   </si>
   <si>
-    <t>made on 3ds</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>wrong directory to extract 3ds file 2 player files are wrong</t>
   </si>
   <si>
@@ -665,12 +650,6 @@
     <t>multiple</t>
   </si>
   <si>
-    <t>3dsx not runing, wrong exploit, CIA works</t>
-  </si>
-  <si>
-    <t>downloading, not wrking</t>
-  </si>
-  <si>
     <t>3 version, not all tested</t>
   </si>
   <si>
@@ -710,9 +689,6 @@
     <t>gb dl err</t>
   </si>
   <si>
-    <t>törölték, 3ds-en megvan</t>
-  </si>
-  <si>
     <t>new version, corrected</t>
   </si>
   <si>
@@ -752,9 +728,6 @@
     <t>Cube Adventures</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/332</t>
-  </si>
-  <si>
     <t>újranézni</t>
   </si>
   <si>
@@ -764,39 +737,21 @@
     <t>Bandolero 3Ds</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/324</t>
-  </si>
-  <si>
     <t>Level256 Network Installer</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/319</t>
-  </si>
-  <si>
     <t>3DSx Play Coin Setter Mod</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/318</t>
-  </si>
-  <si>
     <t>Dead Pixel Checker</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/317</t>
-  </si>
-  <si>
     <t>Anarch - Suckless FPS game</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/316</t>
-  </si>
-  <si>
     <t>Touch Keys</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/312</t>
-  </si>
-  <si>
     <t>https://github.com/Universal-Team/db/issues/307</t>
   </si>
   <si>
@@ -809,12 +764,6 @@
     <t>https://github.com/Universal-Team/db/issues/306</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/304</t>
-  </si>
-  <si>
-    <t>Donut.c </t>
-  </si>
-  <si>
     <t>RollTheDice-3DS</t>
   </si>
   <si>
@@ -884,22 +833,60 @@
     <t>ki kell egészíteni a git readme tartalmával</t>
   </si>
   <si>
-    <t>ki lett erre cserélve a korábbi release, amit töröltek.</t>
-  </si>
-  <si>
     <t>Dboss148</t>
+  </si>
+  <si>
+    <t>2 datafiles dowmnloaded</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>van pár verzió a 3ds-en cia</t>
+  </si>
+  <si>
+    <t>todo telepíteni és tesztelni újra</t>
+  </si>
+  <si>
+    <t>sikertelen</t>
+  </si>
+  <si>
+    <t>megnézni miért nem tölt le</t>
+  </si>
+  <si>
+    <t>konzolon lesz</t>
+  </si>
+  <si>
+    <t>Donut.c</t>
+  </si>
+  <si>
+    <t>data file in repo</t>
+  </si>
+  <si>
+    <t>3dsx not runing, wrong exploit, CIA works, mentioned in description</t>
+  </si>
+  <si>
+    <t>OpenTitus data files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -982,6 +969,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1072,9 +1066,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1085,7 +1079,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1097,53 +1091,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1152,10 +1143,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1446,10 +1452,10 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1472,338 +1478,338 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -1811,265 +1817,267 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>205</v>
+        <v>52</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>89</v>
+      <c r="L15" s="16"/>
+      <c r="M15" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="30" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2078,307 +2086,303 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>213</v>
+        <v>53</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="L18" s="16"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="N18" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>204</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2386,610 +2390,610 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>89</v>
+        <v>178</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>200</v>
+        <v>52</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>203</v>
+        <v>52</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>204</v>
+        <v>52</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>173</v>
+        <v>45</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>175</v>
+        <v>52</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>197</v>
+        <v>171</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -2997,248 +3001,264 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43" s="25" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="I45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -3246,37 +3266,37 @@
         <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -3284,502 +3304,502 @@
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="26" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>23</v>
+      <c r="A53" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="L53" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G54" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K55" s="26" t="s">
-        <v>183</v>
+        <v>52</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="L56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" s="25" t="s">
+      <c r="B61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L57" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K60" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="L61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3788,548 +3808,665 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K62" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>16</v>
+      <c r="A63" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>173</v>
+        <v>53</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>192</v>
+        <v>52</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K64" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="24" t="s">
-        <v>86</v>
+      <c r="L67" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>201</v>
+      <c r="A68" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>256</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="A69" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="18"/>
       <c r="C69" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>217</v>
-      </c>
+    <row r="70" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="18"/>
       <c r="C70" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>270</v>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>262</v>
+        <v>78</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="L71" s="16"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>219</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>261</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="L73" s="16"/>
     </row>
     <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>262</v>
+        <v>51</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>245</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A78" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K78" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A79" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A80" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A81" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A82" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A83" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A84" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A78" s="27" t="s">
+      <c r="C84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A85" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A79" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A80" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A81" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A82" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A83" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A84" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A85" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>239</v>
+      <c r="C85" s="27"/>
+      <c r="H85" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C86" s="28"/>
+      <c r="C86" s="27"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C87" s="28"/>
+      <c r="C87" s="27"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C88" s="28"/>
+      <c r="C88" s="27"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C89" s="28"/>
+      <c r="C89" s="27"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C90" s="28"/>
+      <c r="C90" s="27"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C91" s="28"/>
+      <c r="C91" s="27"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N92" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
-        <v>144</v>
+      <c r="A94" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -4339,16 +4476,16 @@
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
-        <v>141</v>
+      <c r="A95" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -4358,107 +4495,107 @@
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A106" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H106" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H107" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -4467,114 +4604,106 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A116" s="27" t="s">
-        <v>241</v>
+      <c r="A116" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A117" s="27" t="s">
-        <v>242</v>
+      <c r="A117" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A118" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A118" s="26"/>
     </row>
     <row r="119" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A119" s="27" t="s">
-        <v>246</v>
+      <c r="A119" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A120" s="27" t="s">
-        <v>248</v>
+      <c r="A120" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A121" s="27" t="s">
-        <v>251</v>
+      <c r="A121" s="26" t="s">
+        <v>234</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A122" s="27" t="s">
-        <v>253</v>
+      <c r="A122" s="26" t="s">
+        <v>236</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A123" s="27" t="s">
-        <v>254</v>
+      <c r="A123" s="26" t="s">
+        <v>237</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -4582,25 +4711,25 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
     <row r="124" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A124" s="27" t="s">
-        <v>257</v>
+      <c r="A124" s="26" t="s">
+        <v>240</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A125" s="27" t="s">
-        <v>259</v>
+      <c r="A125" s="26" t="s">
+        <v>242</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4610,9 +4739,8 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="M34" r:id="rId1" xr:uid="{A3E5B044-85D1-468A-A613-8725F60707A8}"/>
-    <hyperlink ref="A73" r:id="rId2" display="https://github.com/Universal-Team/db/issues/357" xr:uid="{70329A6B-E196-48D4-8022-8F632C2E1858}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080C190F-A197-4FD3-AA4F-ECAE515426DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B5726-8CED-4E49-867D-59B7A9C91DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="256">
   <si>
     <t>title</t>
   </si>
@@ -568,9 +568,6 @@
   </si>
   <si>
     <t>retest</t>
-  </si>
-  <si>
-    <t>something wrong with the donwload</t>
   </si>
   <si>
     <t>rom</t>
@@ -665,9 +662,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>exits</t>
-  </si>
-  <si>
     <t>some problem</t>
   </si>
   <si>
@@ -689,9 +683,6 @@
     <t>gb dl err</t>
   </si>
   <si>
-    <t>new version, corrected</t>
-  </si>
-  <si>
     <t>sikertelen, de elérhető</t>
   </si>
   <si>
@@ -752,63 +743,27 @@
     <t>Touch Keys</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/307</t>
-  </si>
-  <si>
     <t>budgieSSH (An SSH client for the 3DS)</t>
   </si>
   <si>
-    <t>Terminal interface clicker game</t>
-  </si>
-  <si>
-    <t>https://github.com/Universal-Team/db/issues/306</t>
-  </si>
-  <si>
     <t>RollTheDice-3DS</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/293</t>
-  </si>
-  <si>
     <t>Space Invaders Clone</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/289</t>
-  </si>
-  <si>
-    <t>https://github.com/Universal-Team/db/issues/288</t>
-  </si>
-  <si>
     <t>Notebook3DS</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/287</t>
-  </si>
-  <si>
     <t>3DS Collab Doodle App</t>
   </si>
   <si>
-    <t>3DiceRoll/3DiceRoller</t>
-  </si>
-  <si>
-    <t>https://github.com/Universal-Team/db/issues/274</t>
-  </si>
-  <si>
-    <t>1.1.0 !!!!</t>
-  </si>
-  <si>
     <t>3DS Button Tester</t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/273</t>
-  </si>
-  <si>
     <t>BlargSPC 3ds </t>
   </si>
   <si>
-    <t>https://github.com/Universal-Team/db/issues/268</t>
-  </si>
-  <si>
     <t>van</t>
   </si>
   <si>
@@ -827,9 +782,6 @@
     <t>cspsp</t>
   </si>
   <si>
-    <t>updatelve lásd fenn</t>
-  </si>
-  <si>
     <t>ki kell egészíteni a git readme tartalmával</t>
   </si>
   <si>
@@ -867,6 +819,30 @@
   </si>
   <si>
     <t>OpenTitus data files</t>
+  </si>
+  <si>
+    <t>cia telepítés után nem találom</t>
+  </si>
+  <si>
+    <t>wrong exploit</t>
+  </si>
+  <si>
+    <t>crashes with missing files</t>
+  </si>
+  <si>
+    <t>meg kell nézni</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Terminal Clicker</t>
+  </si>
+  <si>
+    <t>nincs</t>
+  </si>
+  <si>
+    <t>Lego</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1154,14 +1130,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1449,13 +1429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H81" sqref="H81"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,7 +1774,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>78</v>
@@ -1806,7 +1786,7 @@
         <v>52</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>54</v>
@@ -1870,7 +1850,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>78</v>
@@ -1882,7 +1862,7 @@
         <v>52</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>54</v>
@@ -1927,8 +1907,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>192</v>
+      <c r="A13" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>97</v>
@@ -1940,10 +1920,10 @@
         <v>54</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>53</v>
@@ -1956,7 +1936,7 @@
         <v>52</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>54</v>
@@ -2003,7 +1983,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2019,10 +1999,10 @@
         <v>53</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>127</v>
@@ -2033,16 +2013,16 @@
       <c r="J15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="34" t="s">
         <v>128</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="30" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2058,10 +2038,10 @@
         <v>53</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>127</v>
@@ -2072,16 +2052,16 @@
       <c r="J16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="34" t="s">
         <v>127</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="30" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3"/>
@@ -2098,7 +2078,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>80</v>
@@ -2110,7 +2090,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>54</v>
@@ -2121,7 +2101,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
@@ -2205,14 +2185,14 @@
       <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>180</v>
+      <c r="E20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>78</v>
@@ -2223,14 +2203,14 @@
       <c r="J20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="18" t="s">
         <v>165</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>251</v>
+      <c r="N20" s="18" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2253,7 +2233,7 @@
         <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>78</v>
@@ -2265,7 +2245,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>52</v>
@@ -2291,7 +2271,7 @@
         <v>170</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>78</v>
@@ -2303,7 +2283,7 @@
         <v>52</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>52</v>
@@ -2385,7 +2365,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2378,8 @@
       <c r="D25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>170</v>
+      <c r="E25" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>53</v>
@@ -2416,11 +2396,14 @@
       <c r="J25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>178</v>
+      <c r="K25" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>88</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2454,14 +2437,14 @@
       <c r="J26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>193</v>
+      <c r="K26" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2540,7 +2523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>158</v>
       </c>
@@ -2553,11 +2536,11 @@
       <c r="D29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>171</v>
+      <c r="E29" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>171</v>
@@ -2571,11 +2554,13 @@
       <c r="J29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="21" t="s">
-        <v>196</v>
-      </c>
+      <c r="K29" s="21"/>
       <c r="L29" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2610,7 +2595,7 @@
         <v>52</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>54</v>
@@ -2654,7 +2639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -2670,8 +2655,8 @@
       <c r="E32" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>170</v>
+      <c r="F32" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>53</v>
@@ -2685,7 +2670,7 @@
       <c r="J32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="21" t="s">
         <v>172</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -2705,17 +2690,17 @@
       <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>170</v>
+      <c r="E33" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>52</v>
@@ -2723,7 +2708,7 @@
       <c r="J33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="36" t="s">
         <v>100</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -2820,10 +2805,10 @@
         <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>53</v>
@@ -2838,7 +2823,7 @@
         <v>52</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>54</v>
@@ -2876,7 +2861,7 @@
         <v>52</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>54</v>
@@ -3010,7 +2995,7 @@
         <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>53</v>
@@ -3092,7 +3077,7 @@
         <v>171</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>53</v>
@@ -3104,7 +3089,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>54</v>
@@ -3112,16 +3097,16 @@
     </row>
     <row r="44" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>47</v>
@@ -3144,7 +3129,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="28"/>
       <c r="M44" s="5" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -3179,7 +3164,7 @@
         <v>52</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>54</v>
@@ -3293,7 +3278,7 @@
         <v>52</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>54</v>
@@ -3331,7 +3316,7 @@
         <v>52</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>54</v>
@@ -3452,7 +3437,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3471,7 +3456,7 @@
         <v>53</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>77</v>
@@ -3486,7 +3471,7 @@
         <v>115</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -3559,7 +3544,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>54</v>
@@ -3635,7 +3620,7 @@
         <v>52</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L57" s="23" t="s">
         <v>88</v>
@@ -3661,7 +3646,7 @@
         <v>53</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>78</v>
@@ -3673,7 +3658,7 @@
         <v>52</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>54</v>
@@ -3699,7 +3684,7 @@
         <v>53</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>78</v>
@@ -3711,7 +3696,7 @@
         <v>52</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>54</v>
@@ -3749,7 +3734,7 @@
         <v>52</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>54</v>
@@ -3775,7 +3760,7 @@
         <v>53</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>78</v>
@@ -3787,7 +3772,7 @@
         <v>52</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>54</v>
@@ -3811,7 +3796,7 @@
         <v>52</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L62" s="5"/>
     </row>
@@ -3841,7 +3826,7 @@
         <v>77</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>52</v>
@@ -3888,7 +3873,7 @@
         <v>52</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>54</v>
@@ -3962,7 +3947,7 @@
         <v>52</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>112</v>
@@ -4006,10 +3991,10 @@
     </row>
     <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>51</v>
@@ -4034,18 +4019,18 @@
         <v>52</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="3" t="s">
@@ -4067,10 +4052,10 @@
         <v>78</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>174</v>
@@ -4079,7 +4064,7 @@
     </row>
     <row r="70" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="3" t="s">
@@ -4098,19 +4083,19 @@
         <v>78</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L70" s="16"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>51</v>
@@ -4131,10 +4116,10 @@
         <v>78</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L71" s="16"/>
     </row>
@@ -4149,10 +4134,10 @@
         <v>51</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>161</v>
@@ -4162,9 +4147,10 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="33" t="s">
-        <v>211</v>
-      </c>
+      <c r="A73" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="18"/>
       <c r="C73" s="3" t="s">
         <v>51</v>
       </c>
@@ -4181,45 +4167,47 @@
         <v>78</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L73" s="16"/>
     </row>
     <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B74" s="18"/>
       <c r="C74" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B75" s="18"/>
       <c r="C75" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>52</v>
@@ -4227,45 +4215,48 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B76" s="18"/>
       <c r="C76" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B77" s="18"/>
       <c r="C77" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A78" s="34" t="s">
-        <v>216</v>
-      </c>
+      <c r="A78" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="18"/>
       <c r="C78" s="3" t="s">
         <v>51</v>
       </c>
@@ -4276,7 +4267,7 @@
         <v>53</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>53</v>
@@ -4285,19 +4276,20 @@
         <v>78</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A79" s="29" t="s">
-        <v>218</v>
-      </c>
+      <c r="A79" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" s="18"/>
       <c r="C79" s="3" t="s">
         <v>51</v>
       </c>
@@ -4311,45 +4303,57 @@
         <v>171</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A80" s="29" t="s">
-        <v>219</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B80" s="18"/>
       <c r="C80" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D80" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E80" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>170</v>
+      <c r="F80" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="H80" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I80" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A81" s="26" t="s">
-        <v>220</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L80" s="16"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A81" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="18"/>
       <c r="C81" s="3" t="s">
         <v>51</v>
       </c>
@@ -4357,16 +4361,17 @@
         <v>78</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A82" s="26" t="s">
-        <v>221</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A82" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="18"/>
       <c r="C82" s="3" t="s">
         <v>51</v>
       </c>
@@ -4374,16 +4379,17 @@
         <v>78</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A83" s="26" t="s">
-        <v>222</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A83" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="18"/>
       <c r="C83" s="3" t="s">
         <v>51</v>
       </c>
@@ -4391,16 +4397,17 @@
         <v>78</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A84" s="26" t="s">
-        <v>223</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A84" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="18"/>
       <c r="C84" s="3" t="s">
         <v>51</v>
       </c>
@@ -4408,328 +4415,386 @@
         <v>78</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A85" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" s="27"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.4">
+      <c r="A85" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H85" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>244</v>
+      <c r="I85" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C86" s="27"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C87" s="27"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C88" s="27"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C89" s="27"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C90" s="27"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C91" s="27"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N92" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A86" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.4">
+      <c r="A87" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A88" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.4">
+      <c r="A89" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A90" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A91" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A92" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A93" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="27"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="27"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="27"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C97" s="27"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C98" s="27"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C99" s="27"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N100" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="N93" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="18" t="s">
+      <c r="N101" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10" t="s">
+      <c r="B102" s="10"/>
+      <c r="C102" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
+    <row r="103" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="109" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A106" s="9" t="s">
+    <row r="114" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A114" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H112" s="1" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A116" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A117" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A118" s="26"/>
-    </row>
-    <row r="119" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A119" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A120" s="26" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A121" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A122" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A123" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-    </row>
-    <row r="124" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A124" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A125" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B5726-8CED-4E49-867D-59B7A9C91DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985AB52-3DBB-4224-AB00-F835FBE5D5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="255">
   <si>
     <t>title</t>
   </si>
@@ -837,9 +837,6 @@
   </si>
   <si>
     <t>Terminal Clicker</t>
-  </si>
-  <si>
-    <t>nincs</t>
   </si>
   <si>
     <t>Lego</t>
@@ -1429,13 +1426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4449,14 +4446,14 @@
       <c r="H86" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I86" s="19" t="s">
+      <c r="I86" s="3" t="s">
         <v>229</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A87" s="26" t="s">
         <v>253</v>
       </c>
@@ -4466,8 +4463,8 @@
       <c r="H87" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I87" s="19" t="s">
-        <v>230</v>
+      <c r="I87" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>229</v>
@@ -4558,7 +4555,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.4">
       <c r="A93" s="26" t="s">
         <v>228</v>
       </c>
@@ -4571,17 +4568,28 @@
       <c r="I93" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="27"/>
+      <c r="C94" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J94" s="19" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="C95" s="27"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4594,24 +4602,40 @@
       <c r="C98" s="27"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C99" s="27"/>
+      <c r="N99" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="N100" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="10" t="s">
@@ -4625,175 +4649,156 @@
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10" t="s">
         <v>141</v>
       </c>
     </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K108" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>147</v>
+        <v>101</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A113" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C113" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A114" s="9" t="s">
-        <v>104</v>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>136</v>
-      </c>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
+      <c r="A117" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
-        <v>145</v>
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>137</v>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A122" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="K122" s="1" t="s">
         <v>231</v>
       </c>
     </row>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E985AB52-3DBB-4224-AB00-F835FBE5D5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D93FB3-E2B4-4A36-A8EA-67F8FA797A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="261">
   <si>
     <t>title</t>
   </si>
@@ -565,9 +565,6 @@
   </si>
   <si>
     <t>Tetris3DS DS</t>
-  </si>
-  <si>
-    <t>retest</t>
   </si>
   <si>
     <t>rom</t>
@@ -806,6 +803,9 @@
     <t>megnézni miért nem tölt le</t>
   </si>
   <si>
+    <t>konzolon</t>
+  </si>
+  <si>
     <t>konzolon lesz</t>
   </si>
   <si>
@@ -840,6 +840,24 @@
   </si>
   <si>
     <t>Lego</t>
+  </si>
+  <si>
+    <t>konzolon van</t>
+  </si>
+  <si>
+    <t>looks broken</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>EN: sikertelen</t>
+  </si>
+  <si>
+    <t>datafile ok</t>
+  </si>
+  <si>
+    <t>not realy tested, looks scary</t>
   </si>
 </sst>
 </file>
@@ -954,7 +972,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1045,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1041,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1137,6 +1161,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1429,10 +1457,10 @@
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1771,7 +1799,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>78</v>
@@ -1783,7 +1811,7 @@
         <v>52</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>54</v>
@@ -1847,7 +1875,7 @@
         <v>53</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>78</v>
@@ -1859,7 +1887,7 @@
         <v>52</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>54</v>
@@ -1905,7 +1933,7 @@
     </row>
     <row r="13" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>97</v>
@@ -1917,10 +1945,10 @@
         <v>54</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>53</v>
@@ -1933,7 +1961,7 @@
         <v>52</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>54</v>
@@ -1996,10 +2024,10 @@
         <v>53</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>127</v>
@@ -2035,10 +2063,10 @@
         <v>53</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>127</v>
@@ -2075,7 +2103,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>80</v>
@@ -2087,7 +2115,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>54</v>
@@ -2207,7 +2235,7 @@
         <v>52</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2230,7 +2258,7 @@
         <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>78</v>
@@ -2242,7 +2270,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>52</v>
@@ -2268,7 +2296,7 @@
         <v>170</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>78</v>
@@ -2280,7 +2308,7 @@
         <v>52</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>52</v>
@@ -2404,7 +2432,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2419,8 +2447,8 @@
       <c r="E26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>177</v>
+      <c r="F26" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>53</v>
@@ -2434,14 +2462,14 @@
       <c r="J26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="21" t="s">
-        <v>192</v>
+      <c r="K26" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2520,8 +2548,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2534,10 +2562,10 @@
         <v>54</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>171</v>
@@ -2551,7 +2579,9 @@
       <c r="J29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="K29" s="19" t="s">
+        <v>250</v>
+      </c>
       <c r="L29" s="3" t="s">
         <v>54</v>
       </c>
@@ -2592,7 +2622,7 @@
         <v>52</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>54</v>
@@ -2637,7 +2667,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2694,10 +2724,10 @@
         <v>171</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>52</v>
@@ -2802,10 +2832,10 @@
         <v>45</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>53</v>
@@ -2820,7 +2850,7 @@
         <v>52</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>54</v>
@@ -2992,7 +3022,7 @@
         <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>53</v>
@@ -3074,7 +3104,7 @@
         <v>171</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>53</v>
@@ -3086,7 +3116,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>54</v>
@@ -3097,13 +3127,13 @@
         <v>247</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>47</v>
@@ -3126,7 +3156,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="28"/>
       <c r="M44" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -3161,7 +3191,7 @@
         <v>52</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>54</v>
@@ -3275,7 +3305,7 @@
         <v>52</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>54</v>
@@ -3313,7 +3343,7 @@
         <v>52</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>54</v>
@@ -3426,7 +3456,7 @@
       <c r="J52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="19" t="s">
         <v>175</v>
       </c>
       <c r="L52" s="3" t="s">
@@ -3453,7 +3483,7 @@
         <v>53</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>77</v>
@@ -3468,7 +3498,7 @@
         <v>115</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -3541,7 +3571,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>54</v>
@@ -3586,7 +3616,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -3604,7 +3634,7 @@
       <c r="F57" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="19" t="s">
         <v>61</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -3617,7 +3647,7 @@
         <v>52</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L57" s="23" t="s">
         <v>88</v>
@@ -3643,7 +3673,7 @@
         <v>53</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>78</v>
@@ -3655,7 +3685,7 @@
         <v>52</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>54</v>
@@ -3681,7 +3711,7 @@
         <v>53</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>78</v>
@@ -3693,7 +3723,7 @@
         <v>52</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>54</v>
@@ -3731,7 +3761,7 @@
         <v>52</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>54</v>
@@ -3757,7 +3787,7 @@
         <v>53</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>78</v>
@@ -3769,7 +3799,7 @@
         <v>52</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>54</v>
@@ -3793,12 +3823,12 @@
         <v>52</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -3814,7 +3844,7 @@
         <v>53</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>53</v>
@@ -3828,8 +3858,8 @@
       <c r="J63" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K63" s="21" t="s">
-        <v>177</v>
+      <c r="K63" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>54</v>
@@ -3839,7 +3869,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3870,7 +3900,7 @@
         <v>52</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>54</v>
@@ -3944,7 +3974,7 @@
         <v>52</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>112</v>
@@ -3988,10 +4018,10 @@
     </row>
     <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>51</v>
@@ -4016,20 +4046,20 @@
         <v>52</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="B69" s="7"/>
       <c r="C69" s="3" t="s">
         <v>51</v>
       </c>
@@ -4049,29 +4079,32 @@
         <v>78</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>174</v>
       </c>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" s="18"/>
+        <v>205</v>
+      </c>
+      <c r="B70" s="7"/>
       <c r="C70" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D70" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E70" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>170</v>
+      <c r="F70" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>53</v>
@@ -4080,19 +4113,19 @@
         <v>78</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L70" s="16"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>51</v>
@@ -4113,10 +4146,10 @@
         <v>78</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L71" s="16"/>
     </row>
@@ -4131,10 +4164,10 @@
         <v>51</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>161</v>
@@ -4145,9 +4178,9 @@
     </row>
     <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="B73" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="B73" s="7"/>
       <c r="C73" s="3" t="s">
         <v>51</v>
       </c>
@@ -4164,96 +4197,114 @@
         <v>78</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L73" s="16"/>
     </row>
     <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B74" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="B74" s="7"/>
       <c r="C74" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>241</v>
+      <c r="E74" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B75" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="B75" s="7"/>
       <c r="C75" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>241</v>
+      <c r="E75" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="L75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B76" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="B76" s="7"/>
       <c r="C76" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="G76" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="I76" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="B77" s="7"/>
       <c r="C77" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>171</v>
+        <v>240</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="L77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A78" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="B78" s="7"/>
       <c r="C78" s="3" t="s">
         <v>51</v>
       </c>
@@ -4264,7 +4315,7 @@
         <v>53</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>53</v>
@@ -4273,23 +4324,26 @@
         <v>78</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A79" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="18"/>
+      <c r="A79" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="7"/>
       <c r="C79" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D79" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="E79" s="14" t="s">
         <v>53</v>
       </c>
@@ -4299,24 +4353,27 @@
       <c r="G79" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="H79" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I79" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="L79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A80" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="B80" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="B80" s="7"/>
       <c r="C80" s="3" t="s">
         <v>51</v>
       </c>
@@ -4336,263 +4393,433 @@
         <v>78</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>174</v>
       </c>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A81" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81" s="18"/>
+    <row r="81" spans="1:13" ht="58.8" x14ac:dyDescent="0.4">
+      <c r="A81" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" s="7"/>
       <c r="C81" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A82" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L81" s="16"/>
+      <c r="M81" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A82" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="L82" s="16"/>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A83" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A83" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B83" s="18"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A84" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="B84" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="L83" s="16"/>
+    </row>
+    <row r="84" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A84" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" s="7"/>
       <c r="C84" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.4">
-      <c r="A85" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="B85" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L84" s="16"/>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A85" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="7"/>
       <c r="C85" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I85" s="19" t="s">
-        <v>230</v>
+      <c r="I85" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A86" s="26" t="s">
-        <v>222</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="L85" s="16"/>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A86" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="7"/>
       <c r="C86" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>229</v>
+      <c r="I86" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L86" s="16"/>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A87" s="26" t="s">
         <v>253</v>
       </c>
+      <c r="B87" s="7"/>
       <c r="C87" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A88" s="26" t="s">
-        <v>223</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B88" s="7"/>
       <c r="C88" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A89" s="26" t="s">
-        <v>224</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B89" s="7"/>
       <c r="C89" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A90" s="26" t="s">
-        <v>225</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B90" s="7"/>
       <c r="C90" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A91" s="26" t="s">
-        <v>226</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B91" s="7"/>
       <c r="C91" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="16.8" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A92" s="26" t="s">
-        <v>227</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B92" s="7"/>
       <c r="C92" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.4">
-      <c r="A93" s="26" t="s">
         <v>228</v>
       </c>
+    </row>
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="A93" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="7"/>
       <c r="C93" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I93" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J93" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="J93" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="K93" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L93" s="16"/>
+    </row>
+    <row r="94" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>254</v>
       </c>
+      <c r="B94" s="7"/>
       <c r="C94" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G94" s="38" t="s">
+        <v>178</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="J94" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L94" s="16"/>
+      <c r="M94" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C96" s="27"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -4603,7 +4830,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N99" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -4611,7 +4838,7 @@
         <v>146</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4777,10 +5004,10 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>137</v>
@@ -4793,13 +5020,13 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D93FB3-E2B4-4A36-A8EA-67F8FA797A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD61AB1-7408-447A-B92D-FE5DBAF4FB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="268">
   <si>
     <t>title</t>
   </si>
@@ -800,9 +800,6 @@
     <t>sikertelen</t>
   </si>
   <si>
-    <t>megnézni miért nem tölt le</t>
-  </si>
-  <si>
     <t>konzolon</t>
   </si>
   <si>
@@ -851,13 +848,38 @@
     <t>missing</t>
   </si>
   <si>
-    <t>EN: sikertelen</t>
-  </si>
-  <si>
     <t>datafile ok</t>
   </si>
   <si>
     <t>not realy tested, looks scary</t>
+  </si>
+  <si>
+    <t>stops at connecting to server</t>
+  </si>
+  <si>
+    <t>felrerakva ninjahax miatt</t>
+  </si>
+  <si>
+    <t>game tested, FR OK</t>
+  </si>
+  <si>
+    <t>EN: sikertelen
+FR: downloading</t>
+  </si>
+  <si>
+    <t>qr code needed</t>
+  </si>
+  <si>
+    <t>mybe 1.1 datafile nneded, look in the history</t>
+  </si>
+  <si>
+    <t>crashes after exit</t>
+  </si>
+  <si>
+    <t>cant find cia install</t>
+  </si>
+  <si>
+    <t>doesnot do anything</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1140,7 +1162,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1159,12 +1180,14 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1454,13 +1477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1932,7 +1955,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>190</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2038,12 +2061,12 @@
       <c r="J15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="33" t="s">
         <v>128</v>
       </c>
       <c r="L15" s="16"/>
-      <c r="M15" s="30" t="s">
-        <v>245</v>
+      <c r="M15" s="29" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -2077,12 +2100,12 @@
       <c r="J16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="33" t="s">
         <v>127</v>
       </c>
       <c r="L16" s="16"/>
-      <c r="M16" s="30" t="s">
-        <v>245</v>
+      <c r="M16" s="29" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2126,7 +2149,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
@@ -2214,7 +2237,7 @@
         <v>171</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>53</v>
@@ -2428,7 +2451,7 @@
         <v>88</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2580,14 +2603,14 @@
         <v>52</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2735,7 +2758,7 @@
       <c r="J33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="36" t="s">
+      <c r="K33" s="34" t="s">
         <v>100</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -2888,7 +2911,7 @@
         <v>52</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>54</v>
@@ -3085,7 +3108,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3124,7 +3147,7 @@
     </row>
     <row r="44" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>193</v>
@@ -3154,7 +3177,7 @@
         <v>52</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="28"/>
+      <c r="L44" s="27"/>
       <c r="M44" s="5" t="s">
         <v>236</v>
       </c>
@@ -3424,6 +3447,9 @@
       <c r="L51" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="M51" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -3464,7 +3490,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3537,6 +3563,9 @@
       </c>
       <c r="L54" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3853,7 +3882,7 @@
         <v>77</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>52</v>
@@ -3899,7 +3928,7 @@
       <c r="J64" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K64" s="21" t="s">
+      <c r="K64" s="37" t="s">
         <v>183</v>
       </c>
       <c r="L64" s="3" t="s">
@@ -4118,6 +4147,9 @@
       <c r="J70" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="K70" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="L70" s="16"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -4151,44 +4183,50 @@
       <c r="J71" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="K71" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="C72" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
+      <c r="L72" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="31" t="s">
         <v>207</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D73" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E73" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>170</v>
+      <c r="F73" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>53</v>
@@ -4202,48 +4240,67 @@
       <c r="J73" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="K73" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
         <v>208</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D74" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E74" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="22" t="s">
-        <v>240</v>
+      <c r="F74" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I74" s="22" t="s">
-        <v>229</v>
+      <c r="H74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="K74" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L74" s="16"/>
+    </row>
+    <row r="75" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="22" t="s">
-        <v>258</v>
+      <c r="D75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>53</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>228</v>
@@ -4251,20 +4308,38 @@
       <c r="J75" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="K75" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="L75" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="M75" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="G76" s="14" t="s">
         <v>53</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>228</v>
@@ -4272,23 +4347,36 @@
       <c r="J76" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="K76" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L76" s="16"/>
+      <c r="M76" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="33" t="s">
         <v>211</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="D77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="33" t="s">
         <v>240</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>53</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>228</v>
@@ -4296,12 +4384,13 @@
       <c r="J77" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="K77" s="18"/>
       <c r="L77" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="32" t="s">
         <v>212</v>
       </c>
       <c r="B78" s="7"/>
@@ -4314,8 +4403,8 @@
       <c r="E78" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F78" s="22" t="s">
-        <v>240</v>
+      <c r="F78" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>53</v>
@@ -4329,19 +4418,23 @@
       <c r="J78" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="K78" s="22" t="s">
-        <v>241</v>
+      <c r="K78" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L78" s="16"/>
+      <c r="M78" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="36" t="s">
         <v>178</v>
       </c>
       <c r="E79" s="14" t="s">
@@ -4362,6 +4455,9 @@
       <c r="J79" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="K79" s="36" t="s">
+        <v>178</v>
+      </c>
       <c r="L79" s="3" t="s">
         <v>52</v>
       </c>
@@ -4370,7 +4466,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="28" t="s">
         <v>215</v>
       </c>
       <c r="B80" s="7"/>
@@ -4403,8 +4499,8 @@
       </c>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="1:13" ht="58.8" x14ac:dyDescent="0.4">
-      <c r="A81" s="29" t="s">
+    <row r="81" spans="1:15" ht="58.8" x14ac:dyDescent="0.4">
+      <c r="A81" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B81" s="7"/>
@@ -4437,35 +4533,36 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="18" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A82" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="K82" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A82" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="L82" s="16"/>
-    </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A83" s="35" t="s">
+    <row r="83" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A83" s="28" t="s">
         <v>218</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D83" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E83" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>240</v>
+      <c r="F83" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>53</v>
@@ -4479,10 +4576,13 @@
       <c r="J83" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="K83" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="L83" s="16"/>
     </row>
-    <row r="84" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A84" s="29" t="s">
+    <row r="84" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A84" s="28" t="s">
         <v>219</v>
       </c>
       <c r="B84" s="7"/>
@@ -4515,8 +4615,8 @@
       </c>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A85" s="33" t="s">
+    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="A85" s="32" t="s">
         <v>220</v>
       </c>
       <c r="B85" s="7"/>
@@ -4526,10 +4626,10 @@
       <c r="D85" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="19" t="s">
         <v>170</v>
       </c>
       <c r="G85" s="14" t="s">
@@ -4545,12 +4645,12 @@
         <v>228</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A86" s="29" t="s">
+    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="A86" s="28" t="s">
         <v>221</v>
       </c>
       <c r="B86" s="7"/>
@@ -4573,7 +4673,7 @@
         <v>78</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>228</v>
@@ -4583,18 +4683,21 @@
       </c>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A87" s="26" t="s">
-        <v>253</v>
+    <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="A87" s="32" t="s">
+        <v>252</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D87" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E87" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="19" t="s">
         <v>170</v>
       </c>
       <c r="G87" s="14" t="s">
@@ -4609,20 +4712,27 @@
       <c r="J87" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A88" s="26" t="s">
+      <c r="K87" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L87" s="16"/>
+    </row>
+    <row r="88" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A88" s="28" t="s">
         <v>222</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D88" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E88" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>170</v>
+      <c r="F88" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>53</v>
@@ -4636,20 +4746,27 @@
       <c r="J88" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A89" s="26" t="s">
+      <c r="K88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L88" s="16"/>
+    </row>
+    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="A89" s="28" t="s">
         <v>223</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D89" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E89" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>170</v>
+      <c r="F89" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>53</v>
@@ -4663,20 +4780,27 @@
       <c r="J89" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A90" s="26" t="s">
+      <c r="K89" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L89" s="16"/>
+    </row>
+    <row r="90" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A90" s="28" t="s">
         <v>224</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D90" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E90" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>170</v>
+      <c r="F90" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>53</v>
@@ -4690,20 +4814,27 @@
       <c r="J90" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A91" s="26" t="s">
+      <c r="K90" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L90" s="16"/>
+    </row>
+    <row r="91" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A91" s="32" t="s">
         <v>225</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D91" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E91" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>170</v>
+      <c r="F91" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>53</v>
@@ -4717,20 +4848,27 @@
       <c r="J91" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A92" s="26" t="s">
+      <c r="K91" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="L91" s="16"/>
+    </row>
+    <row r="92" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A92" s="28" t="s">
         <v>226</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D92" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E92" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>170</v>
+      <c r="F92" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>53</v>
@@ -4744,9 +4882,13 @@
       <c r="J92" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A93" s="33" t="s">
+      <c r="K92" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L92" s="16"/>
+    </row>
+    <row r="93" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="A93" s="32" t="s">
         <v>227</v>
       </c>
       <c r="B93" s="7"/>
@@ -4779,9 +4921,9 @@
       </c>
       <c r="L93" s="16"/>
     </row>
-    <row r="94" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="3" t="s">
@@ -4793,17 +4935,17 @@
       <c r="E94" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G94" s="38" t="s">
+      <c r="F94" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G94" s="36" t="s">
         <v>178</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>228</v>
@@ -4813,20 +4955,26 @@
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C95" s="27"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C96" s="27"/>
+        <v>257</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C95" s="26"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C96" s="26"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C97" s="27"/>
+      <c r="C97" s="26"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C98" s="27"/>
+      <c r="C98" s="26"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N99" s="1" t="s">
@@ -5015,7 +5163,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">

--- a/releases.xlsx
+++ b/releases.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD61AB1-7408-447A-B92D-FE5DBAF4FB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EB9B4-B05D-4E7C-9218-07FD79707974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Munka1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$68</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="265">
   <si>
     <t>title</t>
   </si>
@@ -800,12 +801,6 @@
     <t>sikertelen</t>
   </si>
   <si>
-    <t>konzolon</t>
-  </si>
-  <si>
-    <t>konzolon lesz</t>
-  </si>
-  <si>
     <t>Donut.c</t>
   </si>
   <si>
@@ -837,9 +832,6 @@
   </si>
   <si>
     <t>Lego</t>
-  </si>
-  <si>
-    <t>konzolon van</t>
   </si>
   <si>
     <t>looks broken</t>
@@ -886,7 +878,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +985,12 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1087,7 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1190,6 +1188,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1480,10 +1479,10 @@
   <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,7 +2065,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -2105,7 +2104,7 @@
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2149,7 +2148,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
@@ -2237,7 +2236,7 @@
         <v>171</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>53</v>
@@ -2451,7 +2450,7 @@
         <v>88</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2603,14 +2602,14 @@
         <v>52</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2911,7 +2910,7 @@
         <v>52</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>54</v>
@@ -3147,7 +3146,7 @@
     </row>
     <row r="44" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>193</v>
@@ -3448,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -3565,7 +3564,7 @@
         <v>54</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -3881,8 +3880,8 @@
       <c r="H63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>242</v>
+      <c r="I63" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>52</v>
@@ -4275,7 +4274,7 @@
         <v>228</v>
       </c>
       <c r="K74" s="37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L74" s="16"/>
     </row>
@@ -4291,7 +4290,7 @@
         <v>52</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>53</v>
@@ -4309,13 +4308,13 @@
         <v>228</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -4352,7 +4351,7 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -4390,7 +4389,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="38" t="s">
         <v>212</v>
       </c>
       <c r="B78" s="7"/>
@@ -4423,7 +4422,7 @@
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.8" x14ac:dyDescent="0.4">
@@ -4533,7 +4532,7 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="18" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
@@ -4541,10 +4540,10 @@
         <v>217</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
@@ -4645,11 +4644,11 @@
         <v>228</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A86" s="28" t="s">
         <v>221</v>
       </c>
@@ -4672,8 +4671,8 @@
       <c r="H86" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I86" s="19" t="s">
-        <v>254</v>
+      <c r="I86" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>228</v>
@@ -4685,7 +4684,7 @@
     </row>
     <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.4">
       <c r="A87" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="3" t="s">
@@ -4751,7 +4750,7 @@
       </c>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A89" s="28" t="s">
         <v>223</v>
       </c>
@@ -4774,8 +4773,8 @@
       <c r="H89" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I89" s="19" t="s">
-        <v>229</v>
+      <c r="I89" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>228</v>
@@ -4849,7 +4848,7 @@
         <v>228</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L91" s="16"/>
     </row>
@@ -4923,7 +4922,7 @@
     </row>
     <row r="94" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="3" t="s">
@@ -4944,8 +4943,8 @@
       <c r="H94" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I94" s="19" t="s">
-        <v>241</v>
+      <c r="I94" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>228</v>
@@ -4955,13 +4954,13 @@
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -5163,10 +5162,10 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>204</v>
       </c>
@@ -5188,4 +5187,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A75D478-DC52-470E-B0F5-BAE5E6108674}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>